--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84513-Reviews-Hotel_Silver_Lake_Los_Angeles-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>144</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Hotel-Silver-Lake-Los-Angeles.h126542.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1619 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r553436742-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84513</t>
+  </si>
+  <si>
+    <t>553436742</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Good price and location, spacious rooms</t>
+  </si>
+  <si>
+    <t>I know that many here seem to complain about the various imperfections of this hotel. Granted, it's not a 4- or 5-star hotel, but it's far cheaper than a 5-star (or even a 2-star) hotel anywhere within a 10-mile radius. What it is: a family run, clean hotel in an incredibly convenient location right off the 101 and near the Silver Lake neighborhood. The staff (I believe he was the owner) was very friendly and we had no issues at all with the service. I would definitely stay again.Main downside was the breakfast. It was very basic and we chose to go elsewhere after the first morning. Also, the signage was confusing, and we passed it and had to make a U-turn when we first arrived.I didn't try to use the Wi-Fi, as I just use my phone's service nowadays.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>FrontDesk_GM, General Manager at Hotel Silver Lake, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>I know that many here seem to complain about the various imperfections of this hotel. Granted, it's not a 4- or 5-star hotel, but it's far cheaper than a 5-star (or even a 2-star) hotel anywhere within a 10-mile radius. What it is: a family run, clean hotel in an incredibly convenient location right off the 101 and near the Silver Lake neighborhood. The staff (I believe he was the owner) was very friendly and we had no issues at all with the service. I would definitely stay again.Main downside was the breakfast. It was very basic and we chose to go elsewhere after the first morning. Also, the signage was confusing, and we passed it and had to make a U-turn when we first arrived.I didn't try to use the Wi-Fi, as I just use my phone's service nowadays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r515652824-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>515652824</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Definately a 2 Star Place</t>
+  </si>
+  <si>
+    <t>The listing makes you think it is located in Silverlake, but really on the other side of Highway 101.  Also, doesn't seem to be a Quality Inn as the website shows.  Lots of worn down issues.  Carpet is frayed everywhere, along with some stains.  No bedspread like shown on street sign.  Towels very thin, washcloth was dirty.  Shower head had 2 settings.... small sprays the size of dime and quarter that shot straight down, didn't "spray out wide" at all. Bathroom appeared clean.  Soap, shampoo, lotion were very generic, but included.  There was this pole lamp against one wall, not sure why it was there.  Kinda in the way of the "closet" area.  Pool gate has been locked the whole time I have been here.  I didnt ask how I am supposed to use it, though.   A/C works well and needed it d/t smell of marijuana wafting throughout.  One plus was for dog owners, we are placed on the 4th floor with a back drop of a hill making it easy to let the pets out to relieve themselves.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>The listing makes you think it is located in Silverlake, but really on the other side of Highway 101.  Also, doesn't seem to be a Quality Inn as the website shows.  Lots of worn down issues.  Carpet is frayed everywhere, along with some stains.  No bedspread like shown on street sign.  Towels very thin, washcloth was dirty.  Shower head had 2 settings.... small sprays the size of dime and quarter that shot straight down, didn't "spray out wide" at all. Bathroom appeared clean.  Soap, shampoo, lotion were very generic, but included.  There was this pole lamp against one wall, not sure why it was there.  Kinda in the way of the "closet" area.  Pool gate has been locked the whole time I have been here.  I didnt ask how I am supposed to use it, though.   A/C works well and needed it d/t smell of marijuana wafting throughout.  One plus was for dog owners, we are placed on the 4th floor with a back drop of a hill making it easy to let the pets out to relieve themselves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r509870881-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>509870881</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Not Bad</t>
+  </si>
+  <si>
+    <t>First Impression is always important.  I guess the hotel staff is bare minimum since I had to wait about 10 min for someone to show up at the front desk.  The checkin process took less time.  I was told that towels weren't available so they would be delivering them to my room as soon as they were washed, dried and folded.  I thought that was weird not to have excess towels to have the rooms fully ready for guests.  The room was definitely dated.  The lamps had plastic covers around the shades.  The leather office chair was so old and worn out.  I'm not sure if this was actually a Quality Inn type of accommodations.  It was great they provided 3 WiFI options, but I later found out why.  All 3 barely had any signal.I'm usually a budget traveler, but I think I will splurge a little more and stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>First Impression is always important.  I guess the hotel staff is bare minimum since I had to wait about 10 min for someone to show up at the front desk.  The checkin process took less time.  I was told that towels weren't available so they would be delivering them to my room as soon as they were washed, dried and folded.  I thought that was weird not to have excess towels to have the rooms fully ready for guests.  The room was definitely dated.  The lamps had plastic covers around the shades.  The leather office chair was so old and worn out.  I'm not sure if this was actually a Quality Inn type of accommodations.  It was great they provided 3 WiFI options, but I later found out why.  All 3 barely had any signal.I'm usually a budget traveler, but I think I will splurge a little more and stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r462814007-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>462814007</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Staff was pleasant, rooms need an update</t>
+  </si>
+  <si>
+    <t>We had a room on the back side of the hotel, very quiet.  Drapes on window should be burned and replaced with vertical blinds-easy to maintain and would provide an updated look.  Bed skirt needs to find its way to the trash.  Linens were clean and the TV was a flat screen with good enough options.  In-expensive compared to others which I guess is its appeal.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>We had a room on the back side of the hotel, very quiet.  Drapes on window should be burned and replaced with vertical blinds-easy to maintain and would provide an updated look.  Bed skirt needs to find its way to the trash.  Linens were clean and the TV was a flat screen with good enough options.  In-expensive compared to others which I guess is its appeal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r449230494-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>449230494</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Terrible front desk</t>
+  </si>
+  <si>
+    <t>The woman who runs the front desk was rude and hostile to multiple guests, in front of other guests. The courtyard is nice but the rooms are tiny and housekeeping is only equipped with a dirt devil (not a full vacuum). We were told we would have to wait in our room all day for maintenance and if we didn't, we were out of luck. The "complimentary breakfast" consists of cold cereal and watery coffee.It's overpriced for what you get, my ring was stolen (I felt ill and accidentally left it in a drawer, it should've been turned in, but I had little hope the front desk would be helpful in the matter).The only real positive is the Wi-Fi actually works well.I don't like being berated and threatened with being "kicked out" for asking for a better rate due to deficiencies like no blankets and dirt under bed. Until they change management, this hotel in a good location is not a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded January 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2017</t>
+  </si>
+  <si>
+    <t>The woman who runs the front desk was rude and hostile to multiple guests, in front of other guests. The courtyard is nice but the rooms are tiny and housekeeping is only equipped with a dirt devil (not a full vacuum). We were told we would have to wait in our room all day for maintenance and if we didn't, we were out of luck. The "complimentary breakfast" consists of cold cereal and watery coffee.It's overpriced for what you get, my ring was stolen (I felt ill and accidentally left it in a drawer, it should've been turned in, but I had little hope the front desk would be helpful in the matter).The only real positive is the Wi-Fi actually works well.I don't like being berated and threatened with being "kicked out" for asking for a better rate due to deficiencies like no blankets and dirt under bed. Until they change management, this hotel in a good location is not a pleasant experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r428466074-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>428466074</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>Grimey room, but it was cheap. It's an old Quality Inn with Quality Inn still on the literature. We we given A non smoking room that smelled smoked in. Office chair in the room was ripped and beat up. I could feel all the springs in the mattress, and could feel whenever my wife moved. Pillows were the size of throw pillows. Front desk service was bad, I was given attitude when I requested late checkout and was told I need to be out of the room in 5 minutes. I'd rather spend a little more to get a lot more.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Grimey room, but it was cheap. It's an old Quality Inn with Quality Inn still on the literature. We we given A non smoking room that smelled smoked in. Office chair in the room was ripped and beat up. I could feel all the springs in the mattress, and could feel whenever my wife moved. Pillows were the size of throw pillows. Front desk service was bad, I was given attitude when I requested late checkout and was told I need to be out of the room in 5 minutes. I'd rather spend a little more to get a lot more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r402408435-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>402408435</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Plain quaint but good value</t>
+  </si>
+  <si>
+    <t>Friendly staff managed located in east Los Angeles in silver lake area Mexican village. Room was clean spacious sheets very clean. Good beds. AC was ok but phone didn't work. Complimentary breakfast maybe too complimentary but ok. Not far from metro station red line and metro bus. That's another face of LA immigrants Koreans Bengladi and of course Mexicans! Some good taco places around. 7/7 not far. Good choice! MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Friendly staff managed located in east Los Angeles in silver lake area Mexican village. Room was clean spacious sheets very clean. Good beds. AC was ok but phone didn't work. Complimentary breakfast maybe too complimentary but ok. Not far from metro station red line and metro bus. That's another face of LA immigrants Koreans Bengladi and of course Mexicans! Some good taco places around. 7/7 not far. Good choice! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r398392830-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>398392830</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>The Hotels location was great for what I had to do. They need spend some money to up grade the Whole place.</t>
+  </si>
+  <si>
+    <t>It seemed to be a family run operation, with little or no Hotel experience !!  Pool was closed, the walk ways very tripping hazards, broken patio tables, nightly gatherings of young people drinking and leaving their trash all over. Building has only one way in and out through the Lobby. Other exits are Blocked," seems to violate Fire Code??" No vending service for drinks or snacks. The free breakfast is very very limited.  The bedding was far from clean, had several spots ( unknown source) and the Pillows were so small and one was stained and smelled.  Room did have a small refrigerator , but hadn't been defrosted in along time and was not cleaned for some time.MoreShow less</t>
+  </si>
+  <si>
+    <t>It seemed to be a family run operation, with little or no Hotel experience !!  Pool was closed, the walk ways very tripping hazards, broken patio tables, nightly gatherings of young people drinking and leaving their trash all over. Building has only one way in and out through the Lobby. Other exits are Blocked," seems to violate Fire Code??" No vending service for drinks or snacks. The free breakfast is very very limited.  The bedding was far from clean, had several spots ( unknown source) and the Pillows were so small and one was stained and smelled.  Room did have a small refrigerator , but hadn't been defrosted in along time and was not cleaned for some time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r394007621-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>394007621</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>love it</t>
+  </si>
+  <si>
+    <t>I love this place excellent service cant wait to stay againcustomer service is excellent  the gentlemen at the front desk was awesome nice comfortable bed the room was really clean we got upgraded to a bigger room due to celebrating my husbands birthdayMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I love this place excellent service cant wait to stay againcustomer service is excellent  the gentlemen at the front desk was awesome nice comfortable bed the room was really clean we got upgraded to a bigger room due to celebrating my husbands birthdayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r372404858-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>372404858</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Unprofessional staff and manager is the worst</t>
+  </si>
+  <si>
+    <t>They double charged me for over a month ago and still waiting my refund what the manager refuses to pay back. Have never stayed in a hotel where staff is rude, narrow minded and in total denial that they are not doing something right. If they had done the refund correctly I would have had my money back in a week and I wouldn´t have to call them twice a week so manager can just hang up on my in the middle of the phonecall because she can´t handle criticism.MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>They double charged me for over a month ago and still waiting my refund what the manager refuses to pay back. Have never stayed in a hotel where staff is rude, narrow minded and in total denial that they are not doing something right. If they had done the refund correctly I would have had my money back in a week and I wouldn´t have to call them twice a week so manager can just hang up on my in the middle of the phonecall because she can´t handle criticism.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r368748385-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>368748385</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Run down hotel</t>
+  </si>
+  <si>
+    <t>I spent one night a this hotel recently. It seems that this hotel has had multiple names recently, America's Best Value Inn, Quality Inn, Hotel 250 and now Hotel Silver Lake Los Angeles. This hotel is very rundown. The carpets in my room were tattered, the cover over the light above the sink was shattered, the coffee maker did not work properly, the bed was hard and uncomfortable and the elevator permit expired five months before my visit. It is not in a very nice neighborhood and I did not feel especially safe there. The breakfast in the morning was really bad. I don't know what they use for bacon and eggs but definitely not bacon and eggs. There was a waffle maker which saved the day. This is a pretty large hotel with a very small parking lot. The hotel was not full when I was there and I was able to park with no problem. However, I don't think there is enough parking if the hotel is full. The afternoon desk clerk was very nice and helpful but I would not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>I spent one night a this hotel recently. It seems that this hotel has had multiple names recently, America's Best Value Inn, Quality Inn, Hotel 250 and now Hotel Silver Lake Los Angeles. This hotel is very rundown. The carpets in my room were tattered, the cover over the light above the sink was shattered, the coffee maker did not work properly, the bed was hard and uncomfortable and the elevator permit expired five months before my visit. It is not in a very nice neighborhood and I did not feel especially safe there. The breakfast in the morning was really bad. I don't know what they use for bacon and eggs but definitely not bacon and eggs. There was a waffle maker which saved the day. This is a pretty large hotel with a very small parking lot. The hotel was not full when I was there and I was able to park with no problem. However, I don't think there is enough parking if the hotel is full. The afternoon desk clerk was very nice and helpful but I would not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r354463934-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>354463934</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>The rooms are nice and big. The bed was kind of hard and the pillows were small. I did not make it to the nice breakfast but the next time I stay I will for sure. It was very clean. The staff was very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are nice and big. The bed was kind of hard and the pillows were small. I did not make it to the nice breakfast but the next time I stay I will for sure. It was very clean. The staff was very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r316382783-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>316382783</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>We arrived and found one coat hanger in the alcove(not a wardrobe) .We had to share towels . The wash basin was in the bedroom. Neither of the bedside lamps worked. Drinks machine took my $2 and gave me nothing. No tea making facilities that we could find. There was no restaurant on the site and the local restaurants amounted to a Peruvian and Mexican restaurant. The Peruvian restaurant was actually quite reasonable but there were language difficulties.  The hot breakfast was OK but not what I would describe as a breakfast. All of this could have been put up with if the neighbourhood around the hotel had not been so poor. After dark if felt threatening.   We never found the pool. The free wifi was good . Despite the fact that we had prepaid for three nights, we left after one.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>We arrived and found one coat hanger in the alcove(not a wardrobe) .We had to share towels . The wash basin was in the bedroom. Neither of the bedside lamps worked. Drinks machine took my $2 and gave me nothing. No tea making facilities that we could find. There was no restaurant on the site and the local restaurants amounted to a Peruvian and Mexican restaurant. The Peruvian restaurant was actually quite reasonable but there were language difficulties.  The hot breakfast was OK but not what I would describe as a breakfast. All of this could have been put up with if the neighbourhood around the hotel had not been so poor. After dark if felt threatening.   We never found the pool. The free wifi was good . Despite the fact that we had prepaid for three nights, we left after one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r295426408-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>295426408</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>Bed Bugs !! No accountability !!!</t>
+  </si>
+  <si>
+    <t>I am an Account Manager. I was recently on a company sponsored trip to Los Angeles and my company had booked Quality Inn &amp; Suites By Convention Center (250 Silver Lake Blvd, Los Angeles, CA 90004) for my 2 day stay. I checked in on the night of 07/27/15 and I woke up to multiple bed bug bites on 07/29/15 morning . I took photos, made a video and even caught a bed bug under the sheets. I complained to my district management and to the hotel reception. The front desk employee told me that the general manager and the owner were both not available for a week. On top of that the hotel charged me 2 days of stay saying its policy. 
+I moved hotels and could not sleep properly because of the psychological effect of getting bit again. I had to throw away all my belongings including all my expensive clothes and suitcase, since I didn’t want to carry the infestation to my house and family. I had to get my car thoroughly steamed and shampooed. I walk around feeling there is a bug crawling on my body and sleeping has become another story.
+No apologies, no accountability and no concern at all. 
+I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the...I am an Account Manager. I was recently on a company sponsored trip to Los Angeles and my company had booked Quality Inn &amp; Suites By Convention Center (250 Silver Lake Blvd, Los Angeles, CA 90004) for my 2 day stay. I checked in on the night of 07/27/15 and I woke up to multiple bed bug bites on 07/29/15 morning . I took photos, made a video and even caught a bed bug under the sheets. I complained to my district management and to the hotel reception. The front desk employee told me that the general manager and the owner were both not available for a week. On top of that the hotel charged me 2 days of stay saying its policy. I moved hotels and could not sleep properly because of the psychological effect of getting bit again. I had to throw away all my belongings including all my expensive clothes and suitcase, since I didn’t want to carry the infestation to my house and family. I had to get my car thoroughly steamed and shampooed. I walk around feeling there is a bug crawling on my body and sleeping has become another story.No apologies, no accountability and no concern at all.  I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the corporate office of Choice Hotels and keep getting bounced to customer relations and be on hold for an hour with no response and getting hung up on. This is a $724 million revenue generating business and there is no one to listen to my complaint and concern. No one cares!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>I am an Account Manager. I was recently on a company sponsored trip to Los Angeles and my company had booked Quality Inn &amp; Suites By Convention Center (250 Silver Lake Blvd, Los Angeles, CA 90004) for my 2 day stay. I checked in on the night of 07/27/15 and I woke up to multiple bed bug bites on 07/29/15 morning . I took photos, made a video and even caught a bed bug under the sheets. I complained to my district management and to the hotel reception. The front desk employee told me that the general manager and the owner were both not available for a week. On top of that the hotel charged me 2 days of stay saying its policy. 
+I moved hotels and could not sleep properly because of the psychological effect of getting bit again. I had to throw away all my belongings including all my expensive clothes and suitcase, since I didn’t want to carry the infestation to my house and family. I had to get my car thoroughly steamed and shampooed. I walk around feeling there is a bug crawling on my body and sleeping has become another story.
+No apologies, no accountability and no concern at all. 
+I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the...I am an Account Manager. I was recently on a company sponsored trip to Los Angeles and my company had booked Quality Inn &amp; Suites By Convention Center (250 Silver Lake Blvd, Los Angeles, CA 90004) for my 2 day stay. I checked in on the night of 07/27/15 and I woke up to multiple bed bug bites on 07/29/15 morning . I took photos, made a video and even caught a bed bug under the sheets. I complained to my district management and to the hotel reception. The front desk employee told me that the general manager and the owner were both not available for a week. On top of that the hotel charged me 2 days of stay saying its policy. I moved hotels and could not sleep properly because of the psychological effect of getting bit again. I had to throw away all my belongings including all my expensive clothes and suitcase, since I didn’t want to carry the infestation to my house and family. I had to get my car thoroughly steamed and shampooed. I walk around feeling there is a bug crawling on my body and sleeping has become another story.No apologies, no accountability and no concern at all.  I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the corporate office of Choice Hotels and keep getting bounced to customer relations and be on hold for an hour with no response and getting hung up on. This is a $724 million revenue generating business and there is no one to listen to my complaint and concern. No one cares!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r295124767-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>295124767</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Expensive for pets</t>
+  </si>
+  <si>
+    <t>Staff wasn't friendly and pet charges were not upfront. Wanted $35 a pet per night. Really would be better if prices were stated clearly upfront. Location seemed a bit sketchy but I'm not familiar with this area so that may be why. Overall not happy with the facility. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Staff wasn't friendly and pet charges were not upfront. Wanted $35 a pet per night. Really would be better if prices were stated clearly upfront. Location seemed a bit sketchy but I'm not familiar with this area so that may be why. Overall not happy with the facility. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r289625656-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>289625656</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>great location</t>
+  </si>
+  <si>
+    <t>Hotel is convenient to Convention Center with many places to eat nearby.  Breakfast is complimentary and included scrambled eggs and bacon.  Hotel was clean and although near freeway, was very quiet.  Wait staff very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is convenient to Convention Center with many places to eat nearby.  Breakfast is complimentary and included scrambled eggs and bacon.  Hotel was clean and although near freeway, was very quiet.  Wait staff very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r289569654-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>289569654</t>
+  </si>
+  <si>
+    <t>Complimentary bed bugs</t>
+  </si>
+  <si>
+    <t>We took a short trip to LA in May 2014 (not August 2014, it would not let me go further back).  When we got the room, we noticed the bathroom shower was not working, so they gave us another room.  They asked if it was okay if there was a small hole in the wall (in the new room); they had not had a chance to fix it yet or something.  We said ok as long as everything worked.  My husband and I took the bed closer to the window, my mother and 9-year-old boy, the bed closer to the back wall. 
+In the morning, they both woke up with bed bug bites.  My mom managed to kill one on her very bed, it left a bloody stain.  We managed to catch one and put it in a cup, so we could show the hotel manager. 
+The manager was not there at the time we checked out, but the clerk looked terrified at the sight of the bed bug, which he kept.  He waived our hotel bill and gave us his manager's business card. He told us to call his manager "Raj" the next day between the hours of 8am-2pm"
+Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over...We took a short trip to LA in May 2014 (not August 2014, it would not let me go further back).  When we got the room, we noticed the bathroom shower was not working, so they gave us another room.  They asked if it was okay if there was a small hole in the wall (in the new room); they had not had a chance to fix it yet or something.  We said ok as long as everything worked.  My husband and I took the bed closer to the window, my mother and 9-year-old boy, the bed closer to the back wall. In the morning, they both woke up with bed bug bites.  My mom managed to kill one on her very bed, it left a bloody stain.  We managed to catch one and put it in a cup, so we could show the hotel manager. The manager was not there at the time we checked out, but the clerk looked terrified at the sight of the bed bug, which he kept.  He waived our hotel bill and gave us his manager's business card. He told us to call his manager "Raj" the next day between the hours of 8am-2pm"Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over the next few days, my mom took the time to boil (yes, boil!) everything outside before we even brought anything back.  I meant to write a review sooner, but never took the time.  I'm attaching some pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>We took a short trip to LA in May 2014 (not August 2014, it would not let me go further back).  When we got the room, we noticed the bathroom shower was not working, so they gave us another room.  They asked if it was okay if there was a small hole in the wall (in the new room); they had not had a chance to fix it yet or something.  We said ok as long as everything worked.  My husband and I took the bed closer to the window, my mother and 9-year-old boy, the bed closer to the back wall. 
+In the morning, they both woke up with bed bug bites.  My mom managed to kill one on her very bed, it left a bloody stain.  We managed to catch one and put it in a cup, so we could show the hotel manager. 
+The manager was not there at the time we checked out, but the clerk looked terrified at the sight of the bed bug, which he kept.  He waived our hotel bill and gave us his manager's business card. He told us to call his manager "Raj" the next day between the hours of 8am-2pm"
+Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over...We took a short trip to LA in May 2014 (not August 2014, it would not let me go further back).  When we got the room, we noticed the bathroom shower was not working, so they gave us another room.  They asked if it was okay if there was a small hole in the wall (in the new room); they had not had a chance to fix it yet or something.  We said ok as long as everything worked.  My husband and I took the bed closer to the window, my mother and 9-year-old boy, the bed closer to the back wall. In the morning, they both woke up with bed bug bites.  My mom managed to kill one on her very bed, it left a bloody stain.  We managed to catch one and put it in a cup, so we could show the hotel manager. The manager was not there at the time we checked out, but the clerk looked terrified at the sight of the bed bug, which he kept.  He waived our hotel bill and gave us his manager's business card. He told us to call his manager "Raj" the next day between the hours of 8am-2pm"Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over the next few days, my mom took the time to boil (yes, boil!) everything outside before we even brought anything back.  I meant to write a review sooner, but never took the time.  I'm attaching some pictures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r288573951-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>288573951</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>A disgraceful and utter failure as a safe, well-managed and respectable "hotel", on ANY level.</t>
+  </si>
+  <si>
+    <t>You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were...You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were a nice touch; perfect for making us feel we hadn't actually just checked into a safe hotel, but instead somehow accidentally found our way on to one of those rickety haunted houses at country fairs. Also great for those who prefer not feeling safe on the outside of the second floor drop in a tremor-prone California city. Well, that aside, within 10 minutes of arriving, at least we finally did get used to the odor we smelled when we first opened the door. It must have been coming from the gigantic enigmatic black carpet stain in the middle of our bizarrely shaped room. Blood!? Ok, well, we were seriously exhausted, so we decided to overlook the all the overwhelming creepiness, call it an adventure and bed down in Freddy Krueger's living room. But within a few minutes of settling in (and just before the welcoming weird smell vanished) instead of working as advertised, we found that their "provided" wifi signal preferred to play a lovely game of hide and seek with all of our laptops and smart phones. After about 5 minutes of trying, we called the front desk and, having received no empathy, asked if they could at least try resetting ONE of the routers responsible for providing our room with internet access (there were several and none of them were consistently remaining connected) to see if reconnecting to their internet service provider might ultimately help so that we could get some work done. The evening shift manager's blasé "ok" and anything resembling helpfulness should have been the final straw. But we tried for 30 more minutes, moving around the room, moving down the gooey outside walkway to the end and back and finally down through the white mystery doors to the lobby where we were told there were no rooms left to be moved to (even when just moments later I over-hear the request from a 'walk up' for a room and, after having been told the $150 price, leaves. Thanks for lying to us by the way). The problems we endured didn't stop there; frankly, I don't have the desire to include them all in this review. Suffice it to say, that after having attempted to be there for an hour and finally deciding this place wasn't for us, we were told that their policy was that after having remained in a room for 15 minutes, there were no refunds. Congratulations Quality Inn for creating the stupidest, customer-repulsing policy I've ever had the displeasure of coming across from any hotel in any of the 100+ countries I've traveled to, including North Korea. 15 minutes is fine if you decide you don't like the wall paper or that the room smells odd, but by the time you get settled and start to realize things like plumbing, non-working lighting and no internet is building up to cramp your expectations of what the quality in Quality Inn actually means, 30-40 minutes have elapsed. Which unfortunately is how long it took us to finally decide we'd had enough and desired a different room. As I had previously indicated, when I learned we were apparently lied to when we were told there wasn't anything available for us to move to, we actually decided to just depart the hotel and try some place else, a little over an hour of having checked in. At that point, we were told to go screw ourselves. They didn't care about our discomfort and dissatisfaction with any number of things. Our money was there's now and that their "policy" states that we shouldn't expect any recourse or remuneration, despite the fact that all they gave us was an hour of the worst hospitality experience we'd ever had the misfortune of experiencing. We were actually threatened by the shift manager with physical harm when I tried to video our unbelievable discourse (who had told us HE was actually the owner of the hotel, but who we later discovered -- from the incoming shift manager -- was simply just a shift manager himself. Continuing to lie to us was painting a pretty terrible picture of this guy's training). And because we were dealing with a "hotel", this guy had free access has our credit card number we were made to put on file. Which as you know as an unsatisfied customer, feels amazingly "secure". So before departing, I thought it was wise to have that guy check off with us that nothing was missing from our room, or had been broken by us, as that unfortunate accusation was a distinct possibility given the ongoing representation of this guys character. That was when he began to get really ugly, and accusatory. At that point we began to fear for our safety and I decided that getting the police involved was the best course of action. Not to bully them into changing their inane policy, but because we needed an official record about what transpired. So sadly we called, but since we didn't feel safe waiting any longer in the gang-pounded parking lot for more than the two hours it took the police to NOT show up, we threw in the towel and let him rob us. I honestly don't think anyone could have made up a worse experience, even as a practical joke, as the one we experienced at this property. We drove away dumbfounded at how a place like this could not only be in business, but get to display the sign of a national hotel chain. This was simply the most horrid hotel I've attempted to stay in, and the scariest interaction with anyone in the hospitality business, I've ever had in my entire 30 years of traveling the world. And if I could provide you with five vomit icons as a rating instead of one star, I would.MoreShow less</t>
+  </si>
+  <si>
+    <t>You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were...You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were a nice touch; perfect for making us feel we hadn't actually just checked into a safe hotel, but instead somehow accidentally found our way on to one of those rickety haunted houses at country fairs. Also great for those who prefer not feeling safe on the outside of the second floor drop in a tremor-prone California city. Well, that aside, within 10 minutes of arriving, at least we finally did get used to the odor we smelled when we first opened the door. It must have been coming from the gigantic enigmatic black carpet stain in the middle of our bizarrely shaped room. Blood!? Ok, well, we were seriously exhausted, so we decided to overlook the all the overwhelming creepiness, call it an adventure and bed down in Freddy Krueger's living room. But within a few minutes of settling in (and just before the welcoming weird smell vanished) instead of working as advertised, we found that their "provided" wifi signal preferred to play a lovely game of hide and seek with all of our laptops and smart phones. After about 5 minutes of trying, we called the front desk and, having received no empathy, asked if they could at least try resetting ONE of the routers responsible for providing our room with internet access (there were several and none of them were consistently remaining connected) to see if reconnecting to their internet service provider might ultimately help so that we could get some work done. The evening shift manager's blasé "ok" and anything resembling helpfulness should have been the final straw. But we tried for 30 more minutes, moving around the room, moving down the gooey outside walkway to the end and back and finally down through the white mystery doors to the lobby where we were told there were no rooms left to be moved to (even when just moments later I over-hear the request from a 'walk up' for a room and, after having been told the $150 price, leaves. Thanks for lying to us by the way). The problems we endured didn't stop there; frankly, I don't have the desire to include them all in this review. Suffice it to say, that after having attempted to be there for an hour and finally deciding this place wasn't for us, we were told that their policy was that after having remained in a room for 15 minutes, there were no refunds. Congratulations Quality Inn for creating the stupidest, customer-repulsing policy I've ever had the displeasure of coming across from any hotel in any of the 100+ countries I've traveled to, including North Korea. 15 minutes is fine if you decide you don't like the wall paper or that the room smells odd, but by the time you get settled and start to realize things like plumbing, non-working lighting and no internet is building up to cramp your expectations of what the quality in Quality Inn actually means, 30-40 minutes have elapsed. Which unfortunately is how long it took us to finally decide we'd had enough and desired a different room. As I had previously indicated, when I learned we were apparently lied to when we were told there wasn't anything available for us to move to, we actually decided to just depart the hotel and try some place else, a little over an hour of having checked in. At that point, we were told to go screw ourselves. They didn't care about our discomfort and dissatisfaction with any number of things. Our money was there's now and that their "policy" states that we shouldn't expect any recourse or remuneration, despite the fact that all they gave us was an hour of the worst hospitality experience we'd ever had the misfortune of experiencing. We were actually threatened by the shift manager with physical harm when I tried to video our unbelievable discourse (who had told us HE was actually the owner of the hotel, but who we later discovered -- from the incoming shift manager -- was simply just a shift manager himself. Continuing to lie to us was painting a pretty terrible picture of this guy's training). And because we were dealing with a "hotel", this guy had free access has our credit card number we were made to put on file. Which as you know as an unsatisfied customer, feels amazingly "secure". So before departing, I thought it was wise to have that guy check off with us that nothing was missing from our room, or had been broken by us, as that unfortunate accusation was a distinct possibility given the ongoing representation of this guys character. That was when he began to get really ugly, and accusatory. At that point we began to fear for our safety and I decided that getting the police involved was the best course of action. Not to bully them into changing their inane policy, but because we needed an official record about what transpired. So sadly we called, but since we didn't feel safe waiting any longer in the gang-pounded parking lot for more than the two hours it took the police to NOT show up, we threw in the towel and let him rob us. I honestly don't think anyone could have made up a worse experience, even as a practical joke, as the one we experienced at this property. We drove away dumbfounded at how a place like this could not only be in business, but get to display the sign of a national hotel chain. This was simply the most horrid hotel I've attempted to stay in, and the scariest interaction with anyone in the hospitality business, I've ever had in my entire 30 years of traveling the world. And if I could provide you with five vomit icons as a rating instead of one star, I would.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r284508095-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>284508095</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Great location, near Hollywood</t>
+  </si>
+  <si>
+    <t>Check-in went quickly. Room atmosphere was very good, quiet and relaxing.The stay in this hotel was outstanding, service was great, staff very friendly. Overall great experience and will definitely be returning again for future stay, and will also be recommending the hotel to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Check-in went quickly. Room atmosphere was very good, quiet and relaxing.The stay in this hotel was outstanding, service was great, staff very friendly. Overall great experience and will definitely be returning again for future stay, and will also be recommending the hotel to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r266946072-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>266946072</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Quality Inn &amp; Suites by Convention Center/Silver Lake, CA</t>
+  </si>
+  <si>
+    <t>It's hard to be understanding of elderly people's problems while traveling.   When my husband arrived tired and sick at this Inn, and I had locked our only car key inside the rental auto, we were most embarrassed.  Yet the concierge/manager and her desk associate were remarkably calm and gracious to take care of our needs efficiently without reproach. We were most grateful for their kindness and the ample suite layout for my spouse's privacy retiring early and  for my own space staying up later to relax from fierce L.A. traffic.  Between daytime rush hour traffic peaks,  the noise level dropped for our sound sleep at night. This inn's prime asset is its surprisingly great location for quick access to both downtown streets and freeways. When the concierge had to call AAA auto service for me, help arrived promptly!  Many thanks, R. and S.!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>It's hard to be understanding of elderly people's problems while traveling.   When my husband arrived tired and sick at this Inn, and I had locked our only car key inside the rental auto, we were most embarrassed.  Yet the concierge/manager and her desk associate were remarkably calm and gracious to take care of our needs efficiently without reproach. We were most grateful for their kindness and the ample suite layout for my spouse's privacy retiring early and  for my own space staying up later to relax from fierce L.A. traffic.  Between daytime rush hour traffic peaks,  the noise level dropped for our sound sleep at night. This inn's prime asset is its surprisingly great location for quick access to both downtown streets and freeways. When the concierge had to call AAA auto service for me, help arrived promptly!  Many thanks, R. and S.!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r265840763-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>265840763</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>The towels were dirty and the carpets needed some good cleaning. The location wasn't too bad and the hotel grounds was acceptable. Staff was very nice and personable. There was a stain on our shower curtain. I was ok with what I had since I wasn't in the room much. If you're going to spend quality time I your hotel room, this ain't the place. The pool was nice as well. Continental breakfast had a feeling of "let's just throw some crap together." Waffle maker was broken. Elevator is only big enough for two people with suitcases and it takes forever.MoreShow less</t>
+  </si>
+  <si>
+    <t>The towels were dirty and the carpets needed some good cleaning. The location wasn't too bad and the hotel grounds was acceptable. Staff was very nice and personable. There was a stain on our shower curtain. I was ok with what I had since I wasn't in the room much. If you're going to spend quality time I your hotel room, this ain't the place. The pool was nice as well. Continental breakfast had a feeling of "let's just throw some crap together." Waffle maker was broken. Elevator is only big enough for two people with suitcases and it takes forever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r252409609-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>252409609</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Great Location. Just off the freeway close to Downtown and Hollywood.</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for business many, many times over the years. This place is way better than you would expect from a Quality Inn. The beds are very comfortable and the suites are more like little apartments. This becomes my home away from home when I trave to LA. MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel for business many, many times over the years. This place is way better than you would expect from a Quality Inn. The beds are very comfortable and the suites are more like little apartments. This becomes my home away from home when I trave to LA. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r252170943-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>252170943</t>
+  </si>
+  <si>
+    <t>02/01/2015</t>
+  </si>
+  <si>
+    <t>Avoid this hotel at all costs!</t>
+  </si>
+  <si>
+    <t>Seriously don't come to this hotel. Don't make the mistake I made by booking this hotel. This ruined our whole Los Angeles experience. First of all, this place is in an extremely shady part of Los Angeles. But, the worst part is the service. I have never felt so disrespected and insulted as this hotel experience. We were watched on camera and followed by the front desk person who checked the cameras to see if we had extra guests. Then he verbally assaulted us through the hotel phone as well as when we walked outside of our room to downstairs in the lobby. The man downstairs charged my credit card without my consent and for an amount that should not be allowed (by Quality Inn Headquarter rules). This place is run by a bunch of crooks that want to get their money from unsuspecting visitors. Don't stay here! It will seriously ruin your Los Angeles experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Seriously don't come to this hotel. Don't make the mistake I made by booking this hotel. This ruined our whole Los Angeles experience. First of all, this place is in an extremely shady part of Los Angeles. But, the worst part is the service. I have never felt so disrespected and insulted as this hotel experience. We were watched on camera and followed by the front desk person who checked the cameras to see if we had extra guests. Then he verbally assaulted us through the hotel phone as well as when we walked outside of our room to downstairs in the lobby. The man downstairs charged my credit card without my consent and for an amount that should not be allowed (by Quality Inn Headquarter rules). This place is run by a bunch of crooks that want to get their money from unsuspecting visitors. Don't stay here! It will seriously ruin your Los Angeles experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r247499728-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>247499728</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>This is a below "quality" quality inn. I traveled here with family over year end 2014 - location is good (near to hollywood), the front desk is also cooperative (that's why 2 stars) - but rooms are congested, bed &amp; beddings are bad, sleep quality is bad. Showers were not even having a hot water (in Dec cold). Breakfast was typical and boring. I will never recommend this to anybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded January 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a below "quality" quality inn. I traveled here with family over year end 2014 - location is good (near to hollywood), the front desk is also cooperative (that's why 2 stars) - but rooms are congested, bed &amp; beddings are bad, sleep quality is bad. Showers were not even having a hot water (in Dec cold). Breakfast was typical and boring. I will never recommend this to anybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r233366095-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>233366095</t>
+  </si>
+  <si>
+    <t>10/08/2014</t>
+  </si>
+  <si>
+    <t>DUMP</t>
+  </si>
+  <si>
+    <t>This hotel isa DUMP. They need to rebuild. I stayed this year July checked out one day early because I woke up 4am to use restroom ants are coming up from the tub. Told the manager and said he will give the refund for the last night back( RDTT). He lied* no towels in room* rust in shower* when taking shower water is all over the floor.* white stuff in the corner of the room (maybe to kill the ants or make the room have a different smell* Rooms smell ( I went out and bought air fresher)I would not give this room to a dog to stay in.Save your moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded October 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel isa DUMP. They need to rebuild. I stayed this year July checked out one day early because I woke up 4am to use restroom ants are coming up from the tub. Told the manager and said he will give the refund for the last night back( RDTT). He lied* no towels in room* rust in shower* when taking shower water is all over the floor.* white stuff in the corner of the room (maybe to kill the ants or make the room have a different smell* Rooms smell ( I went out and bought air fresher)I would not give this room to a dog to stay in.Save your moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r230621192-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>230621192</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>If u can book elsewhere !!!!!</t>
+  </si>
+  <si>
+    <t>My husband and my family got to the hotel around 2p.m. check in is at 3 and the desk clerk would not let us check in 20 min early . we just wanted to shower and rest since we driven from northern Cali. When we finally got our keys there were no clean towels available . housekeeping finally came with one towel saying that's all they had !! ONE TOWEL ! I had my two kids and husband !! What was I gonna do with one towel. Room smelled bad, air did not work. Just bad then after checking out my husband asked for a plastic bag to put trash in. LIES ! Staff is scummy lazy liars !MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>My husband and my family got to the hotel around 2p.m. check in is at 3 and the desk clerk would not let us check in 20 min early . we just wanted to shower and rest since we driven from northern Cali. When we finally got our keys there were no clean towels available . housekeeping finally came with one towel saying that's all they had !! ONE TOWEL ! I had my two kids and husband !! What was I gonna do with one towel. Room smelled bad, air did not work. Just bad then after checking out my husband asked for a plastic bag to put trash in. LIES ! Staff is scummy lazy liars !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r229292430-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>229292430</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>Wouldn't recommend 
+Not impressed!</t>
+  </si>
+  <si>
+    <t>Overall not that great.  Just took care of a bug crawling next to the pillow.  Old hotel, sink clogged, old old old towels,  broken &amp; noisy fridge which won't close due to ice buildup so ended up pulling out the plug hoping to get some sleep. Not a MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall not that great.  Just took care of a bug crawling next to the pillow.  Old hotel, sink clogged, old old old towels,  broken &amp; noisy fridge which won't close due to ice buildup so ended up pulling out the plug hoping to get some sleep. Not a More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r217700876-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>217700876</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Misleading</t>
+  </si>
+  <si>
+    <t>Photos online are misleading. This hotel is not a 2 or 3 star by far. Sheets were stained and carpet inside the room was also dirt and stained. Toilet was clogged and the front desk person was also the plumber and when we called to advise of a clog toilet had the audacity to ask if I wanted to unclog the toilet. Breakfast is a joke!! The only good thing is the free parking. Wouldn't stay here for Free, would rather pay for parking in a REAL hotel!!MoreShow less</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2014</t>
+  </si>
+  <si>
+    <t>Photos online are misleading. This hotel is not a 2 or 3 star by far. Sheets were stained and carpet inside the room was also dirt and stained. Toilet was clogged and the front desk person was also the plumber and when we called to advise of a clog toilet had the audacity to ask if I wanted to unclog the toilet. Breakfast is a joke!! The only good thing is the free parking. Wouldn't stay here for Free, would rather pay for parking in a REAL hotel!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r216408661-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>216408661</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice staff &amp; good beds thats it </t>
+  </si>
+  <si>
+    <t>I stayed here from July 12-18. Booked this place through priceline ( never again will i book through priceline, i couldnt choose my bed so when i got to the hotel it was an extra 40 bucks per nite to switch from king to 2 double beds  ) next time i'll book through hotel directly. David helped me out the best he can and gave me some savings.. Staff was friendly and courteous. David , Raj , the other lovely lady , forgot her name, always readily available to assist with towels, plastic forks, etc , whatever we needed , the cleaning ladies as well. Everyone was very pleasant and helpful. as well , the breakfast diner lady was also very nice. You can see that frontline staff is committed to giving the best service possible so that the customers come back. Good job guys keep it up :) 
+Now, as far as the premises go: 
+- breakfast scrambled eggs arent 100% wholesome eggs. A guest told me they are substitute stuff not sure what but the yellow is really yellow and dont really taste of eggs. ( you do have hard boiled eggs ) There is no peanut butter for your toast. The juices are very high in sugar and  so is the yogurt. 
+- the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to...I stayed here from July 12-18. Booked this place through priceline ( never again will i book through priceline, i couldnt choose my bed so when i got to the hotel it was an extra 40 bucks per nite to switch from king to 2 double beds  ) next time i'll book through hotel directly. David helped me out the best he can and gave me some savings.. Staff was friendly and courteous. David , Raj , the other lovely lady , forgot her name, always readily available to assist with towels, plastic forks, etc , whatever we needed , the cleaning ladies as well. Everyone was very pleasant and helpful. as well , the breakfast diner lady was also very nice. You can see that frontline staff is committed to giving the best service possible so that the customers come back. Good job guys keep it up :) Now, as far as the premises go: - breakfast scrambled eggs arent 100% wholesome eggs. A guest told me they are substitute stuff not sure what but the yellow is really yellow and dont really taste of eggs. ( you do have hard boiled eggs ) There is no peanut butter for your toast. The juices are very high in sugar and  so is the yogurt. - the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to get it opened?? You have cameras you can see if strangers are getting in! - The exterior of the rooms  is old and cracked floors and walkways , furniture by the elevator is all scratched and old, please throw it out, elevator floor is dirty , loose tiles, and has graffiti in it, it didnt work one morning. - The interior of my room was so so. The carpet was stained . The beds were comfy and clean, no bugs, although room wasnt cleaned daily, one morning we still had the garbage from the day before and no toilet paper.- the location is right off the hwy, easy access. If i go back its cause of the friendly staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here from July 12-18. Booked this place through priceline ( never again will i book through priceline, i couldnt choose my bed so when i got to the hotel it was an extra 40 bucks per nite to switch from king to 2 double beds  ) next time i'll book through hotel directly. David helped me out the best he can and gave me some savings.. Staff was friendly and courteous. David , Raj , the other lovely lady , forgot her name, always readily available to assist with towels, plastic forks, etc , whatever we needed , the cleaning ladies as well. Everyone was very pleasant and helpful. as well , the breakfast diner lady was also very nice. You can see that frontline staff is committed to giving the best service possible so that the customers come back. Good job guys keep it up :) 
+Now, as far as the premises go: 
+- breakfast scrambled eggs arent 100% wholesome eggs. A guest told me they are substitute stuff not sure what but the yellow is really yellow and dont really taste of eggs. ( you do have hard boiled eggs ) There is no peanut butter for your toast. The juices are very high in sugar and  so is the yogurt. 
+- the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to...I stayed here from July 12-18. Booked this place through priceline ( never again will i book through priceline, i couldnt choose my bed so when i got to the hotel it was an extra 40 bucks per nite to switch from king to 2 double beds  ) next time i'll book through hotel directly. David helped me out the best he can and gave me some savings.. Staff was friendly and courteous. David , Raj , the other lovely lady , forgot her name, always readily available to assist with towels, plastic forks, etc , whatever we needed , the cleaning ladies as well. Everyone was very pleasant and helpful. as well , the breakfast diner lady was also very nice. You can see that frontline staff is committed to giving the best service possible so that the customers come back. Good job guys keep it up :) Now, as far as the premises go: - breakfast scrambled eggs arent 100% wholesome eggs. A guest told me they are substitute stuff not sure what but the yellow is really yellow and dont really taste of eggs. ( you do have hard boiled eggs ) There is no peanut butter for your toast. The juices are very high in sugar and  so is the yogurt. - the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to get it opened?? You have cameras you can see if strangers are getting in! - The exterior of the rooms  is old and cracked floors and walkways , furniture by the elevator is all scratched and old, please throw it out, elevator floor is dirty , loose tiles, and has graffiti in it, it didnt work one morning. - The interior of my room was so so. The carpet was stained . The beds were comfy and clean, no bugs, although room wasnt cleaned daily, one morning we still had the garbage from the day before and no toilet paper.- the location is right off the hwy, easy access. If i go back its cause of the friendly staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r214188765-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>214188765</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Surprisingly Good Stay!</t>
+  </si>
+  <si>
+    <t>After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which...After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which works excellent,  I was able to watch my Eastenders on Youtube with no problem.  I will stay here again and will strongly recommend it to all my friends!MoreShow less</t>
+  </si>
+  <si>
+    <t>After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which...After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which works excellent,  I was able to watch my Eastenders on Youtube with no problem.  I will stay here again and will strongly recommend it to all my friends!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r191671048-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>191671048</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Awesome quick place to stay</t>
+  </si>
+  <si>
+    <t>Came here twice with my girlfriend just to relax and wind from everything else....very good service and good rooms for a good price. Wifi is a little iffy but besides that no complaints with anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>A P, Manager at Hotel Silver Lake, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Came here twice with my girlfriend just to relax and wind from everything else....very good service and good rooms for a good price. Wifi is a little iffy but besides that no complaints with anything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r190339130-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>190339130</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>The outside of the hotel had me weary-and the location (bad neighborhood).But once I got to my room I was RELIEVED!Very clean and spacious with no signs of bugs!I stayed in the winter so maybe they were gone anyway!The staff was friendly and the breakfast was excellent!My vehicle was secure in thier video monitored parking lot.I left very very satisfied and happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>The outside of the hotel had me weary-and the location (bad neighborhood).But once I got to my room I was RELIEVED!Very clean and spacious with no signs of bugs!I stayed in the winter so maybe they were gone anyway!The staff was friendly and the breakfast was excellent!My vehicle was secure in thier video monitored parking lot.I left very very satisfied and happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r185358820-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185358820</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>Worst is impossible!!!</t>
+  </si>
+  <si>
+    <t>The hotel is a disgrace to the Quality Inn brand, at least for the brand in Brazil who usually have reasonable hotels.The hotel as a whole is nasty, dirty and unkempt. The hall/corridors are so ugly and dirty that comes to fear, the rooms are a blend of: dirt, noise and old things.Worst of all, they charged my card the wrong (more than they should charge, of course) and I'm here fighting to give back my money.Simply horrible. Quality Inn NEVER MORE!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>RAJ D, Guest Relations Manager at Hotel Silver Lake, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is a disgrace to the Quality Inn brand, at least for the brand in Brazil who usually have reasonable hotels.The hotel as a whole is nasty, dirty and unkempt. The hall/corridors are so ugly and dirty that comes to fear, the rooms are a blend of: dirt, noise and old things.Worst of all, they charged my card the wrong (more than they should charge, of course) and I'm here fighting to give back my money.Simply horrible. Quality Inn NEVER MORE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r174328734-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174328734</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Even for a budget hotel this was poor</t>
+  </si>
+  <si>
+    <t>Location was run down, surrounded by roads and freeways, nothing nice to look at, dirty swimming pool with federal closure notice on it overflowing trash bins, but worst of all was the plastic crockery and cutlery with the breakfast.Staff were polite but not very welcoming and despite traffic all around the room was quiet, reasonably clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>RAJ D, Front Office Manager at Hotel Silver Lake, responded to this reviewResponded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2013</t>
+  </si>
+  <si>
+    <t>Location was run down, surrounded by roads and freeways, nothing nice to look at, dirty swimming pool with federal closure notice on it overflowing trash bins, but worst of all was the plastic crockery and cutlery with the breakfast.Staff were polite but not very welcoming and despite traffic all around the room was quiet, reasonably clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r174200563-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174200563</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>O;K &amp; then some</t>
+  </si>
+  <si>
+    <t>A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with...A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with everything.  I'm traveling with 2 other rooms and will admit, we have become somewhat of a hotel snob, but all in all, if we were to come back to LA, I certainly wouldn't mind staying here again.  The folks are nice, they even printed all of our boarding passes for us, the housekeepers were attentive (and funny too) and the hostess in the morning is very sweet and always keeping things clean and tidy, well stocked and helping people when they needed it.  Heck, when she didn't have anything to do, she would go to the lobby and clean the front door and dust the furniture.  I can go on and on, but as a hotel manager, I think a good number of these reviews are relatively out of line, and to a degree, are a little prejudicial sounding which is very offensive to me.  Things do happen when you're traveling, unfortunately, the outcome might not be what we want it to be which can spawn tirades like some of the reviews I've been reading.MoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Front Office Manager at Hotel Silver Lake, responded to this reviewResponded August 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2013</t>
+  </si>
+  <si>
+    <t>A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with...A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with everything.  I'm traveling with 2 other rooms and will admit, we have become somewhat of a hotel snob, but all in all, if we were to come back to LA, I certainly wouldn't mind staying here again.  The folks are nice, they even printed all of our boarding passes for us, the housekeepers were attentive (and funny too) and the hostess in the morning is very sweet and always keeping things clean and tidy, well stocked and helping people when they needed it.  Heck, when she didn't have anything to do, she would go to the lobby and clean the front door and dust the furniture.  I can go on and on, but as a hotel manager, I think a good number of these reviews are relatively out of line, and to a degree, are a little prejudicial sounding which is very offensive to me.  Things do happen when you're traveling, unfortunately, the outcome might not be what we want it to be which can spawn tirades like some of the reviews I've been reading.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r173250161-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>173250161</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Clean and Reasonable!</t>
+  </si>
+  <si>
+    <t>Not sure why so many of these other people had issues at this hotel? Ok it’s not the W or Ritz Carlton but it’s not meant to be. It’s a reasonable priced hotel for L.A. Market. The room I stood in #206 was clean and spacious. The hotel did not nickel and dime this customer like so many other hotels do by charging for parking and internet both free. It was convenient on and off from Hwy 101. There is an old saying get what you pay for, if you want the W or Ritz then pay $400 a night. If you want clean and simple then pay the $125 rate I did. I know I will be back in the future..thanks much!MoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Guest Relations Manager at Hotel Silver Lake, responded to this reviewResponded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2013</t>
+  </si>
+  <si>
+    <t>Not sure why so many of these other people had issues at this hotel? Ok it’s not the W or Ritz Carlton but it’s not meant to be. It’s a reasonable priced hotel for L.A. Market. The room I stood in #206 was clean and spacious. The hotel did not nickel and dime this customer like so many other hotels do by charging for parking and internet both free. It was convenient on and off from Hwy 101. There is an old saying get what you pay for, if you want the W or Ritz then pay $400 a night. If you want clean and simple then pay the $125 rate I did. I know I will be back in the future..thanks much!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r168515880-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>168515880</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Bad Customer Service - CANCEL NOW IF YOU CAN!</t>
+  </si>
+  <si>
+    <t>I had a reservation booked for 3 nights in August at this location.  When I was doing some reading on the internet about the hotel, I seen that there is a shuttle service from LAX to the hotel with a third party provider and that there is rental cars nearby.  I called the hotel to ask what the names of these companies were so that I would be able to book transportation while in LA.  My first call to the front desk turns into "I am busy, call back in 20 Minutes".  So I waited the 20 minutes and called back again.  I said "I have 2 questions about your hotel, can you help me with it."  I was told again, I am busy call back in 30 minutes".  I waited about an hour and called back in and got the same front desk agent answered again.  I was told he did not need to answer any questions for me and for me to call the general manager some time and he hung up on me.
+I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to...I had a reservation booked for 3 nights in August at this location.  When I was doing some reading on the internet about the hotel, I seen that there is a shuttle service from LAX to the hotel with a third party provider and that there is rental cars nearby.  I called the hotel to ask what the names of these companies were so that I would be able to book transportation while in LA.  My first call to the front desk turns into "I am busy, call back in 20 Minutes".  So I waited the 20 minutes and called back again.  I said "I have 2 questions about your hotel, can you help me with it."  I was told again, I am busy call back in 30 minutes".  I waited about an hour and called back in and got the same front desk agent answered again.  I was told he did not need to answer any questions for me and for me to call the general manager some time and he hung up on me.I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to a Supervisor at the call centre, they called the hotel and got the information.  Needless to say.  I have cancelled my reservation and will not be staying at this location due to very poor customer service.  I guess I should have read some of these reviews before booking in the first place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>I had a reservation booked for 3 nights in August at this location.  When I was doing some reading on the internet about the hotel, I seen that there is a shuttle service from LAX to the hotel with a third party provider and that there is rental cars nearby.  I called the hotel to ask what the names of these companies were so that I would be able to book transportation while in LA.  My first call to the front desk turns into "I am busy, call back in 20 Minutes".  So I waited the 20 minutes and called back again.  I said "I have 2 questions about your hotel, can you help me with it."  I was told again, I am busy call back in 30 minutes".  I waited about an hour and called back in and got the same front desk agent answered again.  I was told he did not need to answer any questions for me and for me to call the general manager some time and he hung up on me.
+I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to...I had a reservation booked for 3 nights in August at this location.  When I was doing some reading on the internet about the hotel, I seen that there is a shuttle service from LAX to the hotel with a third party provider and that there is rental cars nearby.  I called the hotel to ask what the names of these companies were so that I would be able to book transportation while in LA.  My first call to the front desk turns into "I am busy, call back in 20 Minutes".  So I waited the 20 minutes and called back again.  I said "I have 2 questions about your hotel, can you help me with it."  I was told again, I am busy call back in 30 minutes".  I waited about an hour and called back in and got the same front desk agent answered again.  I was told he did not need to answer any questions for me and for me to call the general manager some time and he hung up on me.I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to a Supervisor at the call centre, they called the hotel and got the information.  Needless to say.  I have cancelled my reservation and will not be staying at this location due to very poor customer service.  I guess I should have read some of these reviews before booking in the first place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r167585768-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167585768</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>This hotel is a nightmare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was inundated with ants, bathroom floor was covered in water due to a valve leak on the toilet. Was told by front desk that are room would be changed and on our return they stated that our rooms problems were corrected and no other rooms were available. Nothing was done to correct the problems and we had no choice but to sleep with ants and walk on a wet bathroom floor. This hotel should be closed it is not suitable for human habitat. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r167584334-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>167584334</t>
+  </si>
+  <si>
+    <t>2nd time stay for Los Angeles convention</t>
+  </si>
+  <si>
+    <t>No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely!...No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely! I don't know her name, but the desk manager there is wonderful. If we have to go to a Los Angeles convention for our company again, I would stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely!...No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely! I don't know her name, but the desk manager there is wonderful. If we have to go to a Los Angeles convention for our company again, I would stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r156509177-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156509177</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>one of the worst experience</t>
+  </si>
+  <si>
+    <t>too many problems 1) rough neighborhood.2) worst customer service from front desk personal.3) bug in rooms.4. mold in bathroom.5 room too small. 6.rooms was dirty including shower head.7) elevator is scary.8) odd shape building take elevator floor 3 to get to fourth floor.9.try to cancel my reservation but was not successful.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded April 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2013</t>
+  </si>
+  <si>
+    <t>too many problems 1) rough neighborhood.2) worst customer service from front desk personal.3) bug in rooms.4. mold in bathroom.5 room too small. 6.rooms was dirty including shower head.7) elevator is scary.8) odd shape building take elevator floor 3 to get to fourth floor.9.try to cancel my reservation but was not successful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r155524265-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155524265</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Ive been to a few quality inns and most times im pretry disappointed. I stayed here expecting a dirty room but that wasnt the case at all. The room was absolutely spotless....no foul smell, no stains in the carpet. I will always frequent this hotel when in los angelesMoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Ive been to a few quality inns and most times im pretry disappointed. I stayed here expecting a dirty room but that wasnt the case at all. The room was absolutely spotless....no foul smell, no stains in the carpet. I will always frequent this hotel when in los angelesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r155355164-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155355164</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>No response to investigating problem.</t>
+  </si>
+  <si>
+    <t>We were staying at this hotel only as we had to be at the Canadian Consulate early Friday Mar 15 due to theft in Los Vegas. We were also planning to relax by the pool.  Pool not heated and there was upholstered sofa on deck.  The room was ok, and the gentleman at check in was very pleasant (think he was the owner).  We had requested a wake up call at 6:am and woke up at 7:30,  as there was no call.  The result was never got breakfast ,  and had to take a cab to &amp; from the consulate..  Not happy campers.  When we returned spoke to woman at front desk who assured me that she would investigate, and get back to me with outcome.  I told her that I thought reimbursement for cab and breakfast would be reasonable.  She said she would call.   Never heard back. Being the first time using choice hotels reservations would not use them againLeslie Faulknerleslies6@telus.netMoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Front Office Manager at Hotel Silver Lake, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>We were staying at this hotel only as we had to be at the Canadian Consulate early Friday Mar 15 due to theft in Los Vegas. We were also planning to relax by the pool.  Pool not heated and there was upholstered sofa on deck.  The room was ok, and the gentleman at check in was very pleasant (think he was the owner).  We had requested a wake up call at 6:am and woke up at 7:30,  as there was no call.  The result was never got breakfast ,  and had to take a cab to &amp; from the consulate..  Not happy campers.  When we returned spoke to woman at front desk who assured me that she would investigate, and get back to me with outcome.  I told her that I thought reimbursement for cab and breakfast would be reasonable.  She said she would call.   Never heard back. Being the first time using choice hotels reservations would not use them againLeslie Faulknerleslies6@telus.netMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r152576790-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152576790</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Great stay for the money</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel four nights while visiting family nearby. This hotel is extremely clean and the friendly staff is very attentive to your needs. Our fifth-floor room (yes, they have an elevator) was spacious, with a view of the Hollywood sign, and included a microwave, frig, coffee maker and hair dryer. The breakfast was above average with great coffee, waffle maker, the usual bread items, cereal, etc. However there was no yogurt and the scrambled eggs were so-so. They did have fresh oranges and apples, and the orange juice was very good. Our last two mornings they also offered bacon, and we wondered why they didn't have it the other two mornings. The room rate was very reasonable and parking was ample; in fact, if you were lucky, you could use one of their covered parking slots. We would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>RAJ D, General Manager at Hotel Silver Lake, responded to this reviewResponded March 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel four nights while visiting family nearby. This hotel is extremely clean and the friendly staff is very attentive to your needs. Our fifth-floor room (yes, they have an elevator) was spacious, with a view of the Hollywood sign, and included a microwave, frig, coffee maker and hair dryer. The breakfast was above average with great coffee, waffle maker, the usual bread items, cereal, etc. However there was no yogurt and the scrambled eggs were so-so. They did have fresh oranges and apples, and the orange juice was very good. Our last two mornings they also offered bacon, and we wondered why they didn't have it the other two mornings. The room rate was very reasonable and parking was ample; in fact, if you were lucky, you could use one of their covered parking slots. We would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145963340-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>145963340</t>
+  </si>
+  <si>
+    <t>11/22/2012</t>
+  </si>
+  <si>
+    <t>Quality meets the price</t>
+  </si>
+  <si>
+    <t>Friendly service, we had a view to the famous Hollywood sign, which was a nice bonus. The room was the the top floor, and nothing disturbed our sleep. The was supposed to be a non-smoking one (there was even a sign), but our experience told something else (the kids protested quite loudly). The breakfast was pretty ok. We could consider going again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>RAJ D, Public Relations Manager at Hotel Silver Lake, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2013</t>
+  </si>
+  <si>
+    <t>Friendly service, we had a view to the famous Hollywood sign, which was a nice bonus. The room was the the top floor, and nothing disturbed our sleep. The was supposed to be a non-smoking one (there was even a sign), but our experience told something else (the kids protested quite loudly). The breakfast was pretty ok. We could consider going again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145960950-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>145960950</t>
+  </si>
+  <si>
+    <t>quality inn silver lake LA not quality!</t>
+  </si>
+  <si>
+    <t>We needed a hotel in the Silver Lake area while visiting in Los Angeles and chose the Quality Inn at 250 Silver Lake Blvd. We had read very mixed reviews of this hotel but location was important to us. This is a very outdated hotel perched above busy Silver Lake Blvd. Walking in we were pleasantly greeted by the staff. The rooms in this hotel have entry from the outside so security wise we would suggest staying at least on the second floor and above. Neighborhood isn't the best so take precautions. The rooms are in dire condition with furniture uncomfortable at best. Bathrooms with dirty grout and generally in need of a redo. We could overlook the dated interior as we were only staying for a short stay, but could not accept the absolutely dirty wash cloths the maid brought us when cleaning the room! Poor quality, dirty linens just tipped this place over the edge. The only plus for this establishment is the price, $89.95 a night in LA is a bargain but you do get what you pay for. No recommendation for the Not Quality inn that is not near the convention center.MoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded January 2, 2013</t>
+  </si>
+  <si>
+    <t>We needed a hotel in the Silver Lake area while visiting in Los Angeles and chose the Quality Inn at 250 Silver Lake Blvd. We had read very mixed reviews of this hotel but location was important to us. This is a very outdated hotel perched above busy Silver Lake Blvd. Walking in we were pleasantly greeted by the staff. The rooms in this hotel have entry from the outside so security wise we would suggest staying at least on the second floor and above. Neighborhood isn't the best so take precautions. The rooms are in dire condition with furniture uncomfortable at best. Bathrooms with dirty grout and generally in need of a redo. We could overlook the dated interior as we were only staying for a short stay, but could not accept the absolutely dirty wash cloths the maid brought us when cleaning the room! Poor quality, dirty linens just tipped this place over the edge. The only plus for this establishment is the price, $89.95 a night in LA is a bargain but you do get what you pay for. No recommendation for the Not Quality inn that is not near the convention center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145455201-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>145455201</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>stay away</t>
+  </si>
+  <si>
+    <t>rudest staff ever ! They  take  your  money and  thats  all they care about !  not  very friendly.  DIRTY rooms and public.areas  needsTLC !!!  small rooms, outdated. pictures are  misleading. I  would not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Front Office Manager at Hotel Silver Lake, responded to this reviewResponded November 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2012</t>
+  </si>
+  <si>
+    <t>rudest staff ever ! They  take  your  money and  thats  all they care about !  not  very friendly.  DIRTY rooms and public.areas  needsTLC !!!  small rooms, outdated. pictures are  misleading. I  would not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145426135-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>145426135</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS do not go here!</t>
+  </si>
+  <si>
+    <t>I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that -...I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that - but wished I hadn't. Now, a few days later, I have about 20 itching bites pretty classic for bed bugs and while I can't be certain it wasn't from the plane (this is so rare) or my own apartment which I'm back in (again, rare since I've lived here forever, haven't had any recent visitors), it is most likely from the hotel. Overall I found them to be very unsympathetic and immediately jumping to deny it, which made me suspicious. If you are debating between here and another place, go elsewhere. This place has bed bugs and they don't care. I've called the hotel 3 times since Sunday and the manager is mysteriously never there even though the previous day, they told me he left early and that he'd be back the next day. I am awaiting his call back and will update if they made amends appropriately and offered to compensate me.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that -...I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that - but wished I hadn't. Now, a few days later, I have about 20 itching bites pretty classic for bed bugs and while I can't be certain it wasn't from the plane (this is so rare) or my own apartment which I'm back in (again, rare since I've lived here forever, haven't had any recent visitors), it is most likely from the hotel. Overall I found them to be very unsympathetic and immediately jumping to deny it, which made me suspicious. If you are debating between here and another place, go elsewhere. This place has bed bugs and they don't care. I've called the hotel 3 times since Sunday and the manager is mysteriously never there even though the previous day, they told me he left early and that he'd be back the next day. I am awaiting his call back and will update if they made amends appropriately and offered to compensate me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r143960340-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143960340</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Not Amazing.</t>
+  </si>
+  <si>
+    <t>Overall, our stay wasn't horrible, however it wasn't amazing either. The furnishings are nice, considering the location. Pros: Close to where we needed to be, nice enough room, breakfast, cleanlinessCons: Customer Service, towels were old and dingy, coffee machine quit working, slow small elevator, when asked for additional towels/coffee they were very stingy only giving one at a time. Breakfast closed at 9.30am sharp, they have waffle makers that were nice, but everything else was just ok. They shut the doors and start putting everything away right at 9.30, even with people still eating. Unfriendly people at the front desk. I might stay here again, but don't expect an overwhelming good experience. If I didn't need to be close by, I would look for another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Overall, our stay wasn't horrible, however it wasn't amazing either. The furnishings are nice, considering the location. Pros: Close to where we needed to be, nice enough room, breakfast, cleanlinessCons: Customer Service, towels were old and dingy, coffee machine quit working, slow small elevator, when asked for additional towels/coffee they were very stingy only giving one at a time. Breakfast closed at 9.30am sharp, they have waffle makers that were nice, but everything else was just ok. They shut the doors and start putting everything away right at 9.30, even with people still eating. Unfriendly people at the front desk. I might stay here again, but don't expect an overwhelming good experience. If I didn't need to be close by, I would look for another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r137710347-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>137710347</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>One-Nighter</t>
+  </si>
+  <si>
+    <t>A brief stay, just one night at the Quality Inn. The title suggests it's close to the Convention Centre but don;t be fooled like I was! The hotel is about 15 minutes away by taxi from the convention centre. However, it is a nice, friendly hotel with big, comfortable rooms. The location was very quiet, ideal for a one night stop-off.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r136775965-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>136775965</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>Pleasently surprised</t>
+  </si>
+  <si>
+    <t>Pleasently surprised, staff very friendly check in was quick and easy and we were very happy with our room. We asked for a non smoking room and was given that and it was also actually a handicapped room. The room was massive with a king size bed which was very comfy. The bathroom was also huge however the wash basin was not in the bathroom but actually in the corner of the bedroom where the little fridge/tea coffee area was, some may have a problem with this but we were fine with that. Hotel is actually in a good location as it was central to everywhere, however we did have a car, not sure about people that don't have there own transport. Not sure about the area its self. Not much many shoos etc within walking distance but only a short drive away. Our room was facing a busy street which we could hear traffic noise from in the room, however all we had to do was put the fan/air conditioner on and we couldn't hear a thing. Room was cheap for the 2nights we stayed and included breakfast which I thought was very good-(cereal, toast, mini muffins, pasties, cook your own waffles, bacon and eggs and yoghurt). Overall I would definately stay there again MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Pleasently surprised, staff very friendly check in was quick and easy and we were very happy with our room. We asked for a non smoking room and was given that and it was also actually a handicapped room. The room was massive with a king size bed which was very comfy. The bathroom was also huge however the wash basin was not in the bathroom but actually in the corner of the bedroom where the little fridge/tea coffee area was, some may have a problem with this but we were fine with that. Hotel is actually in a good location as it was central to everywhere, however we did have a car, not sure about people that don't have there own transport. Not sure about the area its self. Not much many shoos etc within walking distance but only a short drive away. Our room was facing a busy street which we could hear traffic noise from in the room, however all we had to do was put the fan/air conditioner on and we couldn't hear a thing. Room was cheap for the 2nights we stayed and included breakfast which I thought was very good-(cereal, toast, mini muffins, pasties, cook your own waffles, bacon and eggs and yoghurt). Overall I would definately stay there again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r134869897-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>134869897</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>its a motel</t>
+  </si>
+  <si>
+    <t>Its a motel. made a reservation for non smoking and was given a smoking room. i asked for a change and was denied because they were fully booked. parking is tight and its located in the ghetto.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r131976326-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131976326</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Great hotel for the price/location</t>
+  </si>
+  <si>
+    <t>The rating really is only "average" -- but when one considers the location, it warrants ratings bump. The owners are clearly working hard to make a go of this. This hotel is right at the confluence of Silver Lake and Virgil. Within walking distance of plenty of restaurants. The room was clean. The bed passable. The common area back patio is fantastic, and the complimentary breakfast was fine, eggs, breakfast meets, make-your-own waffles, a variety of cereals and fruits.Free parking!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>RAJ D, Front Office Manager at Hotel Silver Lake, responded to this reviewResponded June 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2012</t>
+  </si>
+  <si>
+    <t>The rating really is only "average" -- but when one considers the location, it warrants ratings bump. The owners are clearly working hard to make a go of this. This hotel is right at the confluence of Silver Lake and Virgil. Within walking distance of plenty of restaurants. The room was clean. The bed passable. The common area back patio is fantastic, and the complimentary breakfast was fine, eggs, breakfast meets, make-your-own waffles, a variety of cereals and fruits.Free parking!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r131143356-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131143356</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>better than expected</t>
+  </si>
+  <si>
+    <t>Finding reasonable priced accomodation in LA can be very frustating. especially if you don't want to stay in Hollywood. Building is a little old and needs some renovation, but rooms are big, comfy and very clean. Breakfast is good for american standards, with eggs, bacon and fruits. The area around hotel is not the best, but it's not horrible either. It's a little tricky to get in hotel entrance for the first time, but you cant beat the price in LA for a decent hotel. Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2012</t>
+  </si>
+  <si>
+    <t>Finding reasonable priced accomodation in LA can be very frustating. especially if you don't want to stay in Hollywood. Building is a little old and needs some renovation, but rooms are big, comfy and very clean. Breakfast is good for american standards, with eggs, bacon and fruits. The area around hotel is not the best, but it's not horrible either. It's a little tricky to get in hotel entrance for the first time, but you cant beat the price in LA for a decent hotel. Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r130781123-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130781123</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>If you just want a clean place to stay, this is fine.Really big rooms, but no charm.Breakfast was really nothing for us, but others seemed to like it.Helpfull staff and location near charming Silver LakeMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>RAJ D, Manager at Hotel Silver Lake, responded to this reviewResponded May 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2012</t>
+  </si>
+  <si>
+    <t>If you just want a clean place to stay, this is fine.Really big rooms, but no charm.Breakfast was really nothing for us, but others seemed to like it.Helpfull staff and location near charming Silver LakeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r123515772-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>123515772</t>
+  </si>
+  <si>
+    <t>01/23/2012</t>
+  </si>
+  <si>
+    <t>Not even good.</t>
+  </si>
+  <si>
+    <t>Wow was this a terrible hotel. Absolutely false advertising. "Low-Quality Inn" would have been more appropriate.They get you to book with then with low teaser prices then they nickle and dime you during your stay.The rooms were cheaply maintained. Showers had no pressure. The beds were very small and uncomfortable. TThen on top of that, they wouldn't allow our friends visit us in our rooms because they "weren't staying at the hotel".Don't waste your money and don't ruin your trip by staying here.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r118117113-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>118117113</t>
+  </si>
+  <si>
+    <t>09/14/2011</t>
+  </si>
+  <si>
+    <t>Great Los angeles location, parking great-pet accepted nice rooms!</t>
+  </si>
+  <si>
+    <t>We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels,...We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels, do not wait until a half hour before the breakfast closes to eat- it gets very busy and crowded then. The staff here are very friendly. The hotel does have an odd elevator system, it is in the lobby, and comes up through one side of the hotel. If your room is on the other side of the hotel you may have a small walk to your room-bring wheeled luggage. They do have a stairway on this side of the hotel, but once you go out the door it locks behind you and you cannot get in even with your room key-security?. So you must walk to the other side of the hotel and re-enter through the lobby to ride the elevator or walk the stairway there. This can be difficult if you are parked at the far end of the parking area. They do have a lot of handicapped parking zones near the lobby for people with difficulty walking so much. I noticed someone mentioned this hotel to be a find in Los Angeles, I would agree! The rooms we have had prior to this are small and costly, and all seem to have parking issues etc- Nice place-thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels,...We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels, do not wait until a half hour before the breakfast closes to eat- it gets very busy and crowded then. The staff here are very friendly. The hotel does have an odd elevator system, it is in the lobby, and comes up through one side of the hotel. If your room is on the other side of the hotel you may have a small walk to your room-bring wheeled luggage. They do have a stairway on this side of the hotel, but once you go out the door it locks behind you and you cannot get in even with your room key-security?. So you must walk to the other side of the hotel and re-enter through the lobby to ride the elevator or walk the stairway there. This can be difficult if you are parked at the far end of the parking area. They do have a lot of handicapped parking zones near the lobby for people with difficulty walking so much. I noticed someone mentioned this hotel to be a find in Los Angeles, I would agree! The rooms we have had prior to this are small and costly, and all seem to have parking issues etc- Nice place-thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r115388763-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>115388763</t>
+  </si>
+  <si>
+    <t>07/15/2011</t>
+  </si>
+  <si>
+    <t>Definitely a find in L.A.!</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for three nights during our visit to L.A. We took advantage of the "stay 2 nights &amp; get third night free" option. The location is good: close enough to Hollywood, although it does not have many restaurants nearby. The staff was friendly and attentive. Parking was free and always available. The room was attractive, spacious, and had all the extra amenities. Breakfast included bacon and eggs, juices and you could make your own waffles. Hotel is perched on a hill, away from street traffic and noise, and has an expansive view. I would definitely stay here again! Great economical and comfortable choice!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r76246550-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>76246550</t>
+  </si>
+  <si>
+    <t>08/21/2010</t>
+  </si>
+  <si>
+    <t>Excellent - Very Clean</t>
+  </si>
+  <si>
+    <t>We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is...We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is about three/four blocks away.  We didn't find too many places to eat within walking distance, but when driving, we weren't far from restaurants.  We bought snacks to eat in our room in the evening.  We had a microwave, so popcorn was good.  They also sell popcorn and candy in a vending maching in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is...We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is about three/four blocks away.  We didn't find too many places to eat within walking distance, but when driving, we weren't far from restaurants.  We bought snacks to eat in our room in the evening.  We had a microwave, so popcorn was good.  They also sell popcorn and candy in a vending maching in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r52793251-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>52793251</t>
+  </si>
+  <si>
+    <t>01/06/2010</t>
+  </si>
+  <si>
+    <t>Wonderful stay with great service</t>
+  </si>
+  <si>
+    <t>My 20 year old daughter and I spent 4 nights at the Silver Lake, and we had a wonderful experience. The room was cool, with a lovely view of Griffith Park &amp; its striking observatory as well as the Hollywood sign. The room was clean, and the beds were firm and comfortable with wonderfully plump pillows. The breakfasts were of the type usual for this kind of hotel, but they do a better job than most. Even if you come at the last minute, they are never out of anything, from muffins to eggs &amp; bacon to cereals. The hotel has cleaning staff who always seem very busy, and the front desk staff are friendly and helpful. They even suggest the things that wouldn't occur to us to ask about. As for the location, LA is a very big city, but I was pleased and surprised to discover I could get to almost anywhere with very little trouble because of its nearness to major highways. The only negative is that the hotel isn't in a neighborhood that invites walking exploration. It didn't feel dangerous, just not very interesting. It was nice getting covered parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>My 20 year old daughter and I spent 4 nights at the Silver Lake, and we had a wonderful experience. The room was cool, with a lovely view of Griffith Park &amp; its striking observatory as well as the Hollywood sign. The room was clean, and the beds were firm and comfortable with wonderfully plump pillows. The breakfasts were of the type usual for this kind of hotel, but they do a better job than most. Even if you come at the last minute, they are never out of anything, from muffins to eggs &amp; bacon to cereals. The hotel has cleaning staff who always seem very busy, and the front desk staff are friendly and helpful. They even suggest the things that wouldn't occur to us to ask about. As for the location, LA is a very big city, but I was pleased and surprised to discover I could get to almost anywhere with very little trouble because of its nearness to major highways. The only negative is that the hotel isn't in a neighborhood that invites walking exploration. It didn't feel dangerous, just not very interesting. It was nice getting covered parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r36944593-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>36944593</t>
+  </si>
+  <si>
+    <t>08/06/2009</t>
+  </si>
+  <si>
+    <t>Disregard All other Reviews</t>
+  </si>
+  <si>
+    <t>I was on the phone with Jeff several times about the poor reviews.  I was promised a pleasant stay because the hotel had been purchased by a new owner.  The pict on the web site are as promised, clean and very comfortable beds.  Jeff and Paten (?) were VERY helpful in assisting us with the better restaurants, tips on where to ride the underground train to get to Hollywood Walk of Stars and grocery stores.  They were always available at the desk if needed.  Breakfast was pretty good and since it fed a family of 4 much worth the price.  The hotel includes parking and breakfast - not many do around there.  I was VERY happy with our stay here.  Parking not an issue and we rarely saw guests in the hotel, very quiet.  Thank you for making our stay wonderful!  I appreciate you keeping the promise.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>I was on the phone with Jeff several times about the poor reviews.  I was promised a pleasant stay because the hotel had been purchased by a new owner.  The pict on the web site are as promised, clean and very comfortable beds.  Jeff and Paten (?) were VERY helpful in assisting us with the better restaurants, tips on where to ride the underground train to get to Hollywood Walk of Stars and grocery stores.  They were always available at the desk if needed.  Breakfast was pretty good and since it fed a family of 4 much worth the price.  The hotel includes parking and breakfast - not many do around there.  I was VERY happy with our stay here.  Parking not an issue and we rarely saw guests in the hotel, very quiet.  Thank you for making our stay wonderful!  I appreciate you keeping the promise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r17998242-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>17998242</t>
+  </si>
+  <si>
+    <t>07/17/2008</t>
+  </si>
+  <si>
+    <t>My worst travel experience</t>
+  </si>
+  <si>
+    <t>Here my letter to the Manager, I hope this help others not to live the same experience:
+Dear Jim,
+Today I´m living one of the worst traveling experiences, and all thanks to Holiday Inn Hotel.
+Yesterday night after confirm at the front desk that "there is always some one in charge for attend any customer 24/7" my nightmare begins.
+After a very short night I went at the front desk around 4am for my check out process and for a taxi, And what I found was a message that says"One moment please, I will return in a few minutes..." and at the end "Smile you are in Camera" I was waiting for around 1 hour with no signal of any person, until that I understand that nobody was going to help me so I start to search for taxi options via Internet and making several international calls trying to find a ride to the airport. 
+When I was able to arrive to the Airport, the Airline told me that I lost my flight and because of this my connection, so that means that I will not arrive home the day I planned and all my next day meetings must be canceled.
+As a result the next available flight was 12 hours later with 3 scales and several hours between flights, meaning that my next night will be at another airport, I will arrive with 20 hours delay.
+With this experience...Here my letter to the Manager, I hope this help others not to live the same experience:Dear Jim,Today I´m living one of the worst traveling experiences, and all thanks to Holiday Inn Hotel.Yesterday night after confirm at the front desk that "there is always some one in charge for attend any customer 24/7" my nightmare begins.After a very short night I went at the front desk around 4am for my check out process and for a taxi, And what I found was a message that says"One moment please, I will return in a few minutes..." and at the end "Smile you are in Camera" I was waiting for around 1 hour with no signal of any person, until that I understand that nobody was going to help me so I start to search for taxi options via Internet and making several international calls trying to find a ride to the airport. When I was able to arrive to the Airport, the Airline told me that I lost my flight and because of this my connection, so that means that I will not arrive home the day I planned and all my next day meetings must be canceled.As a result the next available flight was 12 hours later with 3 scales and several hours between flights, meaning that my next night will be at another airport, I will arrive with 20 hours delay.With this experience the impact was more than just a lost flight, and because of that I will proceed to send an Letter to RRHH explaining this situation and why this hotel can not be an option when we need to be in a business travel.I expect that some one take actions to never let this happen again to any customer.regards.MBMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>Here my letter to the Manager, I hope this help others not to live the same experience:
+Dear Jim,
+Today I´m living one of the worst traveling experiences, and all thanks to Holiday Inn Hotel.
+Yesterday night after confirm at the front desk that "there is always some one in charge for attend any customer 24/7" my nightmare begins.
+After a very short night I went at the front desk around 4am for my check out process and for a taxi, And what I found was a message that says"One moment please, I will return in a few minutes..." and at the end "Smile you are in Camera" I was waiting for around 1 hour with no signal of any person, until that I understand that nobody was going to help me so I start to search for taxi options via Internet and making several international calls trying to find a ride to the airport. 
+When I was able to arrive to the Airport, the Airline told me that I lost my flight and because of this my connection, so that means that I will not arrive home the day I planned and all my next day meetings must be canceled.
+As a result the next available flight was 12 hours later with 3 scales and several hours between flights, meaning that my next night will be at another airport, I will arrive with 20 hours delay.
+With this experience...Here my letter to the Manager, I hope this help others not to live the same experience:Dear Jim,Today I´m living one of the worst traveling experiences, and all thanks to Holiday Inn Hotel.Yesterday night after confirm at the front desk that "there is always some one in charge for attend any customer 24/7" my nightmare begins.After a very short night I went at the front desk around 4am for my check out process and for a taxi, And what I found was a message that says"One moment please, I will return in a few minutes..." and at the end "Smile you are in Camera" I was waiting for around 1 hour with no signal of any person, until that I understand that nobody was going to help me so I start to search for taxi options via Internet and making several international calls trying to find a ride to the airport. When I was able to arrive to the Airport, the Airline told me that I lost my flight and because of this my connection, so that means that I will not arrive home the day I planned and all my next day meetings must be canceled.As a result the next available flight was 12 hours later with 3 scales and several hours between flights, meaning that my next night will be at another airport, I will arrive with 20 hours delay.With this experience the impact was more than just a lost flight, and because of that I will proceed to send an Letter to RRHH explaining this situation and why this hotel can not be an option when we need to be in a business travel.I expect that some one take actions to never let this happen again to any customer.regards.MBMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r16629610-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>16629610</t>
+  </si>
+  <si>
+    <t>06/02/2008</t>
+  </si>
+  <si>
+    <t>Great little hotel, bad location</t>
+  </si>
+  <si>
+    <t>Booked this hotel because I am a member of the Priority Rewards Club and it was close to Loyola Law School where I was to attend a seminar the next morning.
+When I pulled into the parking lot the check in location was not early to see. Parking lot was adequately lit, but hotel is at the base of a terrace so houses above gave me the feeling of being watched.
+Got in close to midnight and there was someone at the front desk to greet me. Had my reservation down for two nights when I only book one. Got that corrected at the front desk. So for, so good, as they have a 24 hour cancellation policy.
+Got up to my room on the 3/4 floor via a small elevator. It reminded me of being in Ensenada, Mexico. The third and fourth floors are on a split level with the third for handicapped access.
+Room did not have a room number on the door so I had to lightly knock on the door hoping no one would answer.
+Once I got into the room, it was clean with big windows. TV didn't work well as all of the channels were fuzzy.
+Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for...Booked this hotel because I am a member of the Priority Rewards Club and it was close to Loyola Law School where I was to attend a seminar the next morning.When I pulled into the parking lot the check in location was not early to see. Parking lot was adequately lit, but hotel is at the base of a terrace so houses above gave me the feeling of being watched.Got in close to midnight and there was someone at the front desk to greet me. Had my reservation down for two nights when I only book one. Got that corrected at the front desk. So for, so good, as they have a 24 hour cancellation policy.Got up to my room on the 3/4 floor via a small elevator. It reminded me of being in Ensenada, Mexico. The third and fourth floors are on a split level with the third for handicapped access.Room did not have a room number on the door so I had to lightly knock on the door hoping no one would answer.Once I got into the room, it was clean with big windows. TV didn't work well as all of the channels were fuzzy.Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for a good night's sleep. Lots of road noise at all hours of the day and night. This is probably the biggest draw back of this hotel, especially when one's room faces the adjacent freeway.Got up late in the morning so I was in a hurry to leave. Had to wait for someone to check me out, just to confirm I wouldn't be charged for second night. Desk personnel were not very helpful in locating the law school. I can understand lack of knowledge of the area, but there was no effort to point me in the right direction to find out. Complementary continental breakfast was nice. The eating and serving areas were clean.I paid $160 per might through on line booking. I would look for a better hotel with less noise from the freeway for the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>Booked this hotel because I am a member of the Priority Rewards Club and it was close to Loyola Law School where I was to attend a seminar the next morning.
+When I pulled into the parking lot the check in location was not early to see. Parking lot was adequately lit, but hotel is at the base of a terrace so houses above gave me the feeling of being watched.
+Got in close to midnight and there was someone at the front desk to greet me. Had my reservation down for two nights when I only book one. Got that corrected at the front desk. So for, so good, as they have a 24 hour cancellation policy.
+Got up to my room on the 3/4 floor via a small elevator. It reminded me of being in Ensenada, Mexico. The third and fourth floors are on a split level with the third for handicapped access.
+Room did not have a room number on the door so I had to lightly knock on the door hoping no one would answer.
+Once I got into the room, it was clean with big windows. TV didn't work well as all of the channels were fuzzy.
+Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for...Booked this hotel because I am a member of the Priority Rewards Club and it was close to Loyola Law School where I was to attend a seminar the next morning.When I pulled into the parking lot the check in location was not early to see. Parking lot was adequately lit, but hotel is at the base of a terrace so houses above gave me the feeling of being watched.Got in close to midnight and there was someone at the front desk to greet me. Had my reservation down for two nights when I only book one. Got that corrected at the front desk. So for, so good, as they have a 24 hour cancellation policy.Got up to my room on the 3/4 floor via a small elevator. It reminded me of being in Ensenada, Mexico. The third and fourth floors are on a split level with the third for handicapped access.Room did not have a room number on the door so I had to lightly knock on the door hoping no one would answer.Once I got into the room, it was clean with big windows. TV didn't work well as all of the channels were fuzzy.Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for a good night's sleep. Lots of road noise at all hours of the day and night. This is probably the biggest draw back of this hotel, especially when one's room faces the adjacent freeway.Got up late in the morning so I was in a hurry to leave. Had to wait for someone to check me out, just to confirm I wouldn't be charged for second night. Desk personnel were not very helpful in locating the law school. I can understand lack of knowledge of the area, but there was no effort to point me in the right direction to find out. Complementary continental breakfast was nice. The eating and serving areas were clean.I paid $160 per might through on line booking. I would look for a better hotel with less noise from the freeway for the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r13999462-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>13999462</t>
+  </si>
+  <si>
+    <t>03/02/2008</t>
+  </si>
+  <si>
+    <t>poor service</t>
+  </si>
+  <si>
+    <t>They did not have my reservation, and the front desk operation is very outdated-a hand written reservation system.  On check out the bill was a very 80's looking invoice.  The Breakfast Bar was terrible-zero selection and no hot food or even peanut butter.  No exercise room.  Very scary neighborhood. All rooms open to the outside.  Front desk staff not very helpful.  Housekeeping staff were wonderful.  I would never stay here and also removed from my company's list of acceptable hotels in LA.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r8271016-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>8271016</t>
+  </si>
+  <si>
+    <t>07/31/2007</t>
+  </si>
+  <si>
+    <t>Newly renovated</t>
+  </si>
+  <si>
+    <t>The previous (and only) review is way too outdated! They have since remodelled...all the rooms have new carpet, new furniture, decor..and the housekeeping staff keeps the rooms so clean! Much better improvement!!!A little pricey at times of the year but hey, this is L.A.!!! Kudos!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r7941033-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7941033</t>
+  </si>
+  <si>
+    <t>06/19/2007</t>
+  </si>
+  <si>
+    <t>Average hotel in a bad location</t>
+  </si>
+  <si>
+    <t>To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.
+Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  
+The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't...To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't the kind of neighborhood I would feel safe walking in well after dark.  The good news in all of this is that the hotel is set up upon a hill so there is a buffer zone between the neighborhood and the hotel property.  But if staying here, plan on renting a car or taking a taxi.  Overall, generally pretty average.  Other than the location I had no major complaints.  At the same time, the services offered were just the bare bones, and the only real compliment I could give is that their front desk service was friendly.  Bottom line: stay here if on a budget or having trouble finding room elsewhere.  But look somewhere a bit nicer first if you can afford it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.
+Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  
+The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't...To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't the kind of neighborhood I would feel safe walking in well after dark.  The good news in all of this is that the hotel is set up upon a hill so there is a buffer zone between the neighborhood and the hotel property.  But if staying here, plan on renting a car or taking a taxi.  Overall, generally pretty average.  Other than the location I had no major complaints.  At the same time, the services offered were just the bare bones, and the only real compliment I could give is that their front desk service was friendly.  Bottom line: stay here if on a budget or having trouble finding room elsewhere.  But look somewhere a bit nicer first if you can afford it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r7848782-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>7848782</t>
+  </si>
+  <si>
+    <t>06/13/2007</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable Business Hotel</t>
+  </si>
+  <si>
+    <t>I recently attended a conference in LA. I was not planning on going, so my late booking left me with no hotel options close to the Convention Center. The closest, decent thing I could book was the HI Express at Silver Lake. 
+First of all, this is NOT a family resort hotel. A quick Google Earth of the area will quickly show the type of neighborhood it is in. That’s not to say that it is dangerous – just that it is 100% commercial/industrial with I-101 running right overhead. So these are the expectations you must set.
+The guy at check-in was friendly, efficient and quick. The rest of the front desk staff were also quite pleasant and capable. Every time I requested a taxi for the morning (even for a 4:00 a.m. pickup), it was there. The cab ride to the Convention Center (or Staples Center) was about 15 minutes and $15.
+The room was very clean and quiet, and the temperature controls worked well. The bed was comfortable and the bedding was more than acceptable. My junior suite had two TVs, a coffee pot and a rather nice desk. The free WiFi worked great. The bathrooms were a bit dated, but clean. The showerhead was new. I did not eat the continental breakfast (which looked very limited), but the coffee was pretty good with decent-sized “go” cups provided.
+So, for a three-day business stay this place was more...I recently attended a conference in LA. I was not planning on going, so my late booking left me with no hotel options close to the Convention Center. The closest, decent thing I could book was the HI Express at Silver Lake. First of all, this is NOT a family resort hotel. A quick Google Earth of the area will quickly show the type of neighborhood it is in. That’s not to say that it is dangerous – just that it is 100% commercial/industrial with I-101 running right overhead. So these are the expectations you must set.The guy at check-in was friendly, efficient and quick. The rest of the front desk staff were also quite pleasant and capable. Every time I requested a taxi for the morning (even for a 4:00 a.m. pickup), it was there. The cab ride to the Convention Center (or Staples Center) was about 15 minutes and $15.The room was very clean and quiet, and the temperature controls worked well. The bed was comfortable and the bedding was more than acceptable. My junior suite had two TVs, a coffee pot and a rather nice desk. The free WiFi worked great. The bathrooms were a bit dated, but clean. The showerhead was new. I did not eat the continental breakfast (which looked very limited), but the coffee was pretty good with decent-sized “go” cups provided.So, for a three-day business stay this place was more than acceptable. But would I take my family here or stay here for a LA vacation? No. The Silver Lake simply is not in a tourist area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently attended a conference in LA. I was not planning on going, so my late booking left me with no hotel options close to the Convention Center. The closest, decent thing I could book was the HI Express at Silver Lake. 
+First of all, this is NOT a family resort hotel. A quick Google Earth of the area will quickly show the type of neighborhood it is in. That’s not to say that it is dangerous – just that it is 100% commercial/industrial with I-101 running right overhead. So these are the expectations you must set.
+The guy at check-in was friendly, efficient and quick. The rest of the front desk staff were also quite pleasant and capable. Every time I requested a taxi for the morning (even for a 4:00 a.m. pickup), it was there. The cab ride to the Convention Center (or Staples Center) was about 15 minutes and $15.
+The room was very clean and quiet, and the temperature controls worked well. The bed was comfortable and the bedding was more than acceptable. My junior suite had two TVs, a coffee pot and a rather nice desk. The free WiFi worked great. The bathrooms were a bit dated, but clean. The showerhead was new. I did not eat the continental breakfast (which looked very limited), but the coffee was pretty good with decent-sized “go” cups provided.
+So, for a three-day business stay this place was more...I recently attended a conference in LA. I was not planning on going, so my late booking left me with no hotel options close to the Convention Center. The closest, decent thing I could book was the HI Express at Silver Lake. First of all, this is NOT a family resort hotel. A quick Google Earth of the area will quickly show the type of neighborhood it is in. That’s not to say that it is dangerous – just that it is 100% commercial/industrial with I-101 running right overhead. So these are the expectations you must set.The guy at check-in was friendly, efficient and quick. The rest of the front desk staff were also quite pleasant and capable. Every time I requested a taxi for the morning (even for a 4:00 a.m. pickup), it was there. The cab ride to the Convention Center (or Staples Center) was about 15 minutes and $15.The room was very clean and quiet, and the temperature controls worked well. The bed was comfortable and the bedding was more than acceptable. My junior suite had two TVs, a coffee pot and a rather nice desk. The free WiFi worked great. The bathrooms were a bit dated, but clean. The showerhead was new. I did not eat the continental breakfast (which looked very limited), but the coffee was pretty good with decent-sized “go” cups provided.So, for a three-day business stay this place was more than acceptable. But would I take my family here or stay here for a LA vacation? No. The Silver Lake simply is not in a tourist area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4942898-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4942898</t>
+  </si>
+  <si>
+    <t>04/05/2006</t>
+  </si>
+  <si>
+    <t>Friendly staff, decent room, great price</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for the Los Angeles marathon.  We were a little concerned about the location but once we got there, it was fine.  The neighborhood didn't seem particularly bad and I was planning to walk to the subway in the morning (but ended up getting a ride from my husband anyway).  The management could not have been nicer, greating us enthusiastically and chatting about the marathon, the weather, and everything else under the sun.  The room was clean and good sized, and breakfast in the morning was fine...coffee, juice, cereal, pastries, etc.  Our only complaints (and they are minor) was that there wasn't a dvd player in the room, as mentioned on the website, and I saw a bug or 2 in the bathroom.  Not a big deal.  Oh, and the internet access worked fine from our room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my family for the Los Angeles marathon.  We were a little concerned about the location but once we got there, it was fine.  The neighborhood didn't seem particularly bad and I was planning to walk to the subway in the morning (but ended up getting a ride from my husband anyway).  The management could not have been nicer, greating us enthusiastically and chatting about the marathon, the weather, and everything else under the sun.  The room was clean and good sized, and breakfast in the morning was fine...coffee, juice, cereal, pastries, etc.  Our only complaints (and they are minor) was that there wasn't a dvd player in the room, as mentioned on the website, and I saw a bug or 2 in the bathroom.  Not a big deal.  Oh, and the internet access worked fine from our room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4344280-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4344280</t>
+  </si>
+  <si>
+    <t>01/09/2006</t>
+  </si>
+  <si>
+    <t>I would not recommend this place to anyone on earth.</t>
+  </si>
+  <si>
+    <t>We booked two rooms with a hollywood view as it was faboulously advertised. It was more like a lauzy, small room, yucky carpet, with balcony--not a good value for $150.00 plus tax, a night. When we checked in, we got two rooms at the 5th floor, however, one of the room, was smelly. No body can survive within 1 minutes in that smelly room.  The staff relocated us to the third floor, no balcony, without giving consideration for the lower rate. What you can expect? The room was small and old as well. The wireless internet connection is not working and the staff can explain. The next day, the other staff suggest us to use lobby's wireless connection, still cannot work and no sympaty to help.This is one on the worst hotels I've ever stayed at. I'm disapointed with this Holiday Inn property--they can do better than this!I would not recommend this place to anyone on earth.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked two rooms with a hollywood view as it was faboulously advertised. It was more like a lauzy, small room, yucky carpet, with balcony--not a good value for $150.00 plus tax, a night. When we checked in, we got two rooms at the 5th floor, however, one of the room, was smelly. No body can survive within 1 minutes in that smelly room.  The staff relocated us to the third floor, no balcony, without giving consideration for the lower rate. What you can expect? The room was small and old as well. The wireless internet connection is not working and the staff can explain. The next day, the other staff suggest us to use lobby's wireless connection, still cannot work and no sympaty to help.This is one on the worst hotels I've ever stayed at. I'm disapointed with this Holiday Inn property--they can do better than this!I would not recommend this place to anyone on earth.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4314034-Hotel_Silver_Lake-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>4314034</t>
+  </si>
+  <si>
+    <t>12/30/2005</t>
+  </si>
+  <si>
+    <t>What a Joke - no Holiday here!</t>
+  </si>
+  <si>
+    <t>We booked a room here for 4 nights and had planned to stay another 2 nights if the location and service worked out.  NO GO!  We had clean towels provided only once during our stay despite my pleas on 2 ocassions for clean ones! My husband went to the front desk and waited for the staff to "borrow" the cleans ones from an unoccupied room!  I was told by both housekeeping and the front desk that this hotel didn't have enough towels for replacement until they washed the dirty ones! We would have to wait to take showers!  I have never in my life heard of such a thing at a hotel chain like Holiday Inn and plan to discuss this with the corporate office. There was NO internet connection at all!  It was said to be having server problems - right - but call that "service" problems and in all areas! We never attempted breakfast being afraid to trust the freshness of food in such a place. The parking lot is insufficient in size and is dark and dangerous appearing. The room seemed to be clean when we arrived, but when there is NO service whatsoever, and when basic needs cannot be met perhaps it is time for management to consider a different profession.  Even though one staff member was quite friendly and helpful when we arrived, I would not recommend this place to anyone on earth.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room here for 4 nights and had planned to stay another 2 nights if the location and service worked out.  NO GO!  We had clean towels provided only once during our stay despite my pleas on 2 ocassions for clean ones! My husband went to the front desk and waited for the staff to "borrow" the cleans ones from an unoccupied room!  I was told by both housekeeping and the front desk that this hotel didn't have enough towels for replacement until they washed the dirty ones! We would have to wait to take showers!  I have never in my life heard of such a thing at a hotel chain like Holiday Inn and plan to discuss this with the corporate office. There was NO internet connection at all!  It was said to be having server problems - right - but call that "service" problems and in all areas! We never attempted breakfast being afraid to trust the freshness of food in such a place. The parking lot is insufficient in size and is dark and dangerous appearing. The room seemed to be clean when we arrived, but when there is NO service whatsoever, and when basic needs cannot be met perhaps it is time for management to consider a different profession.  Even though one staff member was quite friendly and helpful when we arrived, I would not recommend this place to anyone on earth.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2261,4509 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>136</v>
+      </c>
+      <c r="X12" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
+      </c>
+      <c r="K18" t="s">
+        <v>183</v>
+      </c>
+      <c r="L18" t="s">
+        <v>184</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>178</v>
+      </c>
+      <c r="X18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s">
+        <v>220</v>
+      </c>
+      <c r="L23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>231</v>
+      </c>
+      <c r="X24" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>274</v>
+      </c>
+      <c r="J30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>249</v>
+      </c>
+      <c r="X30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+      <c r="X31" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>291</v>
+      </c>
+      <c r="X33" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" t="s">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s">
+        <v>304</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>305</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>306</v>
+      </c>
+      <c r="X34" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>315</v>
+      </c>
+      <c r="X35" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
+      </c>
+      <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>323</v>
+      </c>
+      <c r="X36" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>334</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>339</v>
+      </c>
+      <c r="O38" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>340</v>
+      </c>
+      <c r="X38" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J39" t="s">
+        <v>345</v>
+      </c>
+      <c r="K39" t="s">
+        <v>346</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>349</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>88</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>354</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>355</v>
+      </c>
+      <c r="J41" t="s">
+        <v>356</v>
+      </c>
+      <c r="K41" t="s">
+        <v>357</v>
+      </c>
+      <c r="L41" t="s">
+        <v>358</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>359</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>360</v>
+      </c>
+      <c r="X41" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>363</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s">
+        <v>367</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>368</v>
+      </c>
+      <c r="X42" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>376</v>
+      </c>
+      <c r="X43" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>384</v>
+      </c>
+      <c r="X44" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>387</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>388</v>
+      </c>
+      <c r="J45" t="s">
+        <v>389</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>392</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>393</v>
+      </c>
+      <c r="X45" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s">
+        <v>399</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>392</v>
+      </c>
+      <c r="O46" t="s">
+        <v>121</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>400</v>
+      </c>
+      <c r="X46" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>403</v>
+      </c>
+      <c r="J47" t="s">
+        <v>404</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="L47" t="s">
+        <v>406</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>392</v>
+      </c>
+      <c r="O47" t="s">
+        <v>121</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>407</v>
+      </c>
+      <c r="X47" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>410</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>411</v>
+      </c>
+      <c r="J48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K48" t="s">
+        <v>413</v>
+      </c>
+      <c r="L48" t="s">
+        <v>414</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>392</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>416</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>417</v>
+      </c>
+      <c r="J49" t="s">
+        <v>418</v>
+      </c>
+      <c r="K49" t="s">
+        <v>419</v>
+      </c>
+      <c r="L49" t="s">
+        <v>420</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>421</v>
+      </c>
+      <c r="O49" t="s">
+        <v>121</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" t="s">
+        <v>426</v>
+      </c>
+      <c r="L50" t="s">
+        <v>427</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>428</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>429</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>430</v>
+      </c>
+      <c r="J51" t="s">
+        <v>431</v>
+      </c>
+      <c r="K51" t="s">
+        <v>432</v>
+      </c>
+      <c r="L51" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>434</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>428</v>
+      </c>
+      <c r="O52" t="s">
+        <v>88</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>441</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>442</v>
+      </c>
+      <c r="J53" t="s">
+        <v>443</v>
+      </c>
+      <c r="K53" t="s">
+        <v>444</v>
+      </c>
+      <c r="L53" t="s">
+        <v>445</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>446</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>447</v>
+      </c>
+      <c r="X53" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>450</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>451</v>
+      </c>
+      <c r="J54" t="s">
+        <v>452</v>
+      </c>
+      <c r="K54" t="s">
+        <v>453</v>
+      </c>
+      <c r="L54" t="s">
+        <v>454</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>446</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>455</v>
+      </c>
+      <c r="X54" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>458</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>459</v>
+      </c>
+      <c r="J55" t="s">
+        <v>460</v>
+      </c>
+      <c r="K55" t="s">
+        <v>461</v>
+      </c>
+      <c r="L55" t="s">
+        <v>462</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>463</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>464</v>
+      </c>
+      <c r="X55" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>467</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>468</v>
+      </c>
+      <c r="J56" t="s">
+        <v>469</v>
+      </c>
+      <c r="K56" t="s">
+        <v>470</v>
+      </c>
+      <c r="L56" t="s">
+        <v>471</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>473</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>474</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>476</v>
+      </c>
+      <c r="L57" t="s">
+        <v>477</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>121</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>485</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>121</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>493</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>494</v>
+      </c>
+      <c r="J60" t="s">
+        <v>495</v>
+      </c>
+      <c r="K60" t="s">
+        <v>496</v>
+      </c>
+      <c r="L60" t="s">
+        <v>497</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>499</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>500</v>
+      </c>
+      <c r="J61" t="s">
+        <v>501</v>
+      </c>
+      <c r="K61" t="s">
+        <v>502</v>
+      </c>
+      <c r="L61" t="s">
+        <v>503</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>504</v>
+      </c>
+      <c r="O61" t="s">
+        <v>121</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>506</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>507</v>
+      </c>
+      <c r="J62" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" t="s">
+        <v>509</v>
+      </c>
+      <c r="L62" t="s">
+        <v>510</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>511</v>
+      </c>
+      <c r="O62" t="s">
+        <v>88</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>514</v>
+      </c>
+      <c r="J63" t="s">
+        <v>515</v>
+      </c>
+      <c r="K63" t="s">
+        <v>516</v>
+      </c>
+      <c r="L63" t="s">
+        <v>517</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>518</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>523</v>
+      </c>
+      <c r="L64" t="s">
+        <v>524</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>525</v>
+      </c>
+      <c r="O64" t="s">
+        <v>88</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>531</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>536</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>538</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>539</v>
+      </c>
+      <c r="J67" t="s">
+        <v>540</v>
+      </c>
+      <c r="K67" t="s">
+        <v>541</v>
+      </c>
+      <c r="L67" t="s">
+        <v>542</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>536</v>
+      </c>
+      <c r="O67" t="s">
+        <v>88</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>544</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" t="s">
+        <v>546</v>
+      </c>
+      <c r="K68" t="s">
+        <v>547</v>
+      </c>
+      <c r="L68" t="s">
+        <v>548</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>550</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>551</v>
+      </c>
+      <c r="J69" t="s">
+        <v>552</v>
+      </c>
+      <c r="K69" t="s">
+        <v>553</v>
+      </c>
+      <c r="L69" t="s">
+        <v>554</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36769</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>556</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>557</v>
+      </c>
+      <c r="J70" t="s">
+        <v>558</v>
+      </c>
+      <c r="K70" t="s">
+        <v>559</v>
+      </c>
+      <c r="L70" t="s">
+        <v>560</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>561</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_418.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="631">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jim_from_sf</t>
+  </si>
+  <si>
     <t>07/05/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I know that many here seem to complain about the various imperfections of this hotel. Granted, it's not a 4- or 5-star hotel, but it's far cheaper than a 5-star (or even a 2-star) hotel anywhere within a 10-mile radius. What it is: a family run, clean hotel in an incredibly convenient location right off the 101 and near the Silver Lake neighborhood. The staff (I believe he was the owner) was very friendly and we had no issues at all with the service. I would definitely stay again.Main downside was the breakfast. It was very basic and we chose to go elsewhere after the first morning. Also, the signage was confusing, and we passed it and had to make a U-turn when we first arrived.I didn't try to use the Wi-Fi, as I just use my phone's service nowadays.More</t>
   </si>
   <si>
+    <t>Michael P F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r515652824-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The listing makes you think it is located in Silverlake, but really on the other side of Highway 101.  Also, doesn't seem to be a Quality Inn as the website shows.  Lots of worn down issues.  Carpet is frayed everywhere, along with some stains.  No bedspread like shown on street sign.  Towels very thin, washcloth was dirty.  Shower head had 2 settings.... small sprays the size of dime and quarter that shot straight down, didn't "spray out wide" at all. Bathroom appeared clean.  Soap, shampoo, lotion were very generic, but included.  There was this pole lamp against one wall, not sure why it was there.  Kinda in the way of the "closet" area.  Pool gate has been locked the whole time I have been here.  I didnt ask how I am supposed to use it, though.   A/C works well and needed it d/t smell of marijuana wafting throughout.  One plus was for dog owners, we are placed on the 4th floor with a back drop of a hill making it easy to let the pets out to relieve themselves.More</t>
   </si>
   <si>
+    <t>Ronald L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r509870881-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>First Impression is always important.  I guess the hotel staff is bare minimum since I had to wait about 10 min for someone to show up at the front desk.  The checkin process took less time.  I was told that towels weren't available so they would be delivering them to my room as soon as they were washed, dried and folded.  I thought that was weird not to have excess towels to have the rooms fully ready for guests.  The room was definitely dated.  The lamps had plastic covers around the shades.  The leather office chair was so old and worn out.  I'm not sure if this was actually a Quality Inn type of accommodations.  It was great they provided 3 WiFI options, but I later found out why.  All 3 barely had any signal.I'm usually a budget traveler, but I think I will splurge a little more and stay elsewhere.More</t>
   </si>
   <si>
+    <t>Jerry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r462814007-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>We had a room on the back side of the hotel, very quiet.  Drapes on window should be burned and replaced with vertical blinds-easy to maintain and would provide an updated look.  Bed skirt needs to find its way to the trash.  Linens were clean and the TV was a flat screen with good enough options.  In-expensive compared to others which I guess is its appeal.More</t>
   </si>
   <si>
+    <t>katwalk65</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r449230494-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>The woman who runs the front desk was rude and hostile to multiple guests, in front of other guests. The courtyard is nice but the rooms are tiny and housekeeping is only equipped with a dirt devil (not a full vacuum). We were told we would have to wait in our room all day for maintenance and if we didn't, we were out of luck. The "complimentary breakfast" consists of cold cereal and watery coffee.It's overpriced for what you get, my ring was stolen (I felt ill and accidentally left it in a drawer, it should've been turned in, but I had little hope the front desk would be helpful in the matter).The only real positive is the Wi-Fi actually works well.I don't like being berated and threatened with being "kicked out" for asking for a better rate due to deficiencies like no blankets and dirt under bed. Until they change management, this hotel in a good location is not a pleasant experience.More</t>
   </si>
   <si>
+    <t>Kenn d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r428466074-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Grimey room, but it was cheap. It's an old Quality Inn with Quality Inn still on the literature. We we given A non smoking room that smelled smoked in. Office chair in the room was ripped and beat up. I could feel all the springs in the mattress, and could feel whenever my wife moved. Pillows were the size of throw pillows. Front desk service was bad, I was given attitude when I requested late checkout and was told I need to be out of the room in 5 minutes. I'd rather spend a little more to get a lot more.More</t>
   </si>
   <si>
+    <t>Laurent H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r402408435-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>Friendly staff managed located in east Los Angeles in silver lake area Mexican village. Room was clean spacious sheets very clean. Good beds. AC was ok but phone didn't work. Complimentary breakfast maybe too complimentary but ok. Not far from metro station red line and metro bus. That's another face of LA immigrants Koreans Bengladi and of course Mexicans! Some good taco places around. 7/7 not far. Good choice! More</t>
   </si>
   <si>
+    <t>Riki721954</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r398392830-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>It seemed to be a family run operation, with little or no Hotel experience !!  Pool was closed, the walk ways very tripping hazards, broken patio tables, nightly gatherings of young people drinking and leaving their trash all over. Building has only one way in and out through the Lobby. Other exits are Blocked," seems to violate Fire Code??" No vending service for drinks or snacks. The free breakfast is very very limited.  The bedding was far from clean, had several spots ( unknown source) and the Pillows were so small and one was stained and smelled.  Room did have a small refrigerator , but hadn't been defrosted in along time and was not cleaned for some time.More</t>
   </si>
   <si>
+    <t>sunset198183</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r394007621-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>I love this place excellent service cant wait to stay againcustomer service is excellent  the gentlemen at the front desk was awesome nice comfortable bed the room was really clean we got upgraded to a bigger room due to celebrating my husbands birthdayMore</t>
   </si>
   <si>
+    <t>Kädi V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r372404858-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>They double charged me for over a month ago and still waiting my refund what the manager refuses to pay back. Have never stayed in a hotel where staff is rude, narrow minded and in total denial that they are not doing something right. If they had done the refund correctly I would have had my money back in a week and I wouldn´t have to call them twice a week so manager can just hang up on my in the middle of the phonecall because she can´t handle criticism.More</t>
   </si>
   <si>
+    <t>Islandguy808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r368748385-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +468,9 @@
     <t>I spent one night a this hotel recently. It seems that this hotel has had multiple names recently, America's Best Value Inn, Quality Inn, Hotel 250 and now Hotel Silver Lake Los Angeles. This hotel is very rundown. The carpets in my room were tattered, the cover over the light above the sink was shattered, the coffee maker did not work properly, the bed was hard and uncomfortable and the elevator permit expired five months before my visit. It is not in a very nice neighborhood and I did not feel especially safe there. The breakfast in the morning was really bad. I don't know what they use for bacon and eggs but definitely not bacon and eggs. There was a waffle maker which saved the day. This is a pretty large hotel with a very small parking lot. The hotel was not full when I was there and I was able to park with no problem. However, I don't think there is enough parking if the hotel is full. The afternoon desk clerk was very nice and helpful but I would not stay here again.More</t>
   </si>
   <si>
+    <t>Brandy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r354463934-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -462,6 +498,9 @@
     <t>The rooms are nice and big. The bed was kind of hard and the pillows were small. I did not make it to the nice breakfast but the next time I stay I will for sure. It was very clean. The staff was very nice. More</t>
   </si>
   <si>
+    <t>Robin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r316382783-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -487,6 +526,9 @@
   </si>
   <si>
     <t>We arrived and found one coat hanger in the alcove(not a wardrobe) .We had to share towels . The wash basin was in the bedroom. Neither of the bedside lamps worked. Drinks machine took my $2 and gave me nothing. No tea making facilities that we could find. There was no restaurant on the site and the local restaurants amounted to a Peruvian and Mexican restaurant. The Peruvian restaurant was actually quite reasonable but there were language difficulties.  The hot breakfast was OK but not what I would describe as a breakfast. All of this could have been put up with if the neighbourhood around the hotel had not been so poor. After dark if felt threatening.   We never found the pool. The free wifi was good . Despite the fact that we had prepaid for three nights, we left after one.More</t>
+  </si>
+  <si>
+    <t>Amanjot B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r295426408-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -522,6 +564,9 @@
 I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the...I am an Account Manager. I was recently on a company sponsored trip to Los Angeles and my company had booked Quality Inn &amp; Suites By Convention Center (250 Silver Lake Blvd, Los Angeles, CA 90004) for my 2 day stay. I checked in on the night of 07/27/15 and I woke up to multiple bed bug bites on 07/29/15 morning . I took photos, made a video and even caught a bed bug under the sheets. I complained to my district management and to the hotel reception. The front desk employee told me that the general manager and the owner were both not available for a week. On top of that the hotel charged me 2 days of stay saying its policy. I moved hotels and could not sleep properly because of the psychological effect of getting bit again. I had to throw away all my belongings including all my expensive clothes and suitcase, since I didn’t want to carry the infestation to my house and family. I had to get my car thoroughly steamed and shampooed. I walk around feeling there is a bug crawling on my body and sleeping has become another story.No apologies, no accountability and no concern at all.  I want to bring this issue and my personal experience in the eyes of the general public. These hotels need to be held accountable for their negligence and actions. I’ve been trying to call the corporate office of Choice Hotels and keep getting bounced to customer relations and be on hold for an hour with no response and getting hung up on. This is a $724 million revenue generating business and there is no one to listen to my complaint and concern. No one cares!More</t>
   </si>
   <si>
+    <t>Maureen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r295124767-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>Staff wasn't friendly and pet charges were not upfront. Wanted $35 a pet per night. Really would be better if prices were stated clearly upfront. Location seemed a bit sketchy but I'm not familiar with this area so that may be why. Overall not happy with the facility. More</t>
   </si>
   <si>
+    <t>Shirley R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r289625656-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -565,6 +613,9 @@
   </si>
   <si>
     <t>Hotel is convenient to Convention Center with many places to eat nearby.  Breakfast is complimentary and included scrambled eggs and bacon.  Hotel was clean and although near freeway, was very quiet.  Wait staff very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>CaliNini</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r289569654-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -591,6 +642,9 @@
 Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over...We took a short trip to LA in May 2014 (not August 2014, it would not let me go further back).  When we got the room, we noticed the bathroom shower was not working, so they gave us another room.  They asked if it was okay if there was a small hole in the wall (in the new room); they had not had a chance to fix it yet or something.  We said ok as long as everything worked.  My husband and I took the bed closer to the window, my mother and 9-year-old boy, the bed closer to the back wall. In the morning, they both woke up with bed bug bites.  My mom managed to kill one on her very bed, it left a bloody stain.  We managed to catch one and put it in a cup, so we could show the hotel manager. The manager was not there at the time we checked out, but the clerk looked terrified at the sight of the bed bug, which he kept.  He waived our hotel bill and gave us his manager's business card. He told us to call his manager "Raj" the next day between the hours of 8am-2pm"Once home, we left everything in the hot car for a couple of days, hoping the heat would kill the bugs if any decided to follow us.  We unloaded the car straight to the backyard and left everything there.  Over the next few days, my mom took the time to boil (yes, boil!) everything outside before we even brought anything back.  I meant to write a review sooner, but never took the time.  I'm attaching some pictures.More</t>
   </si>
   <si>
+    <t>kc m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r288573951-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were...You'd be doing yourself a favor if you just steered clear of this horrid sack of a dilapidating pile of sticks in an earthquake prone area and go to another place, any other place. Horrible horrible horrible horrible horrible. Just... wow. Where to begin. Creepy staff, creepy locale with a creepy carpet-stained room. Well, but we WERE welcomed to the property with neighborhood gunshots when we arrived, so that was neat. And if you like weaving around a bunch of potholes and construction cones in a parking lot escarpment before reaching a dead-end check-in point with no way to turn-around, then this is the place for you. But if you think you might like a few helpful signs to guide you to your room, then this ISN'T the place for you. Stairwells lead to unmarked floors and blank white mystery doors. It's fun to guess what could be on the other side of doors in a strange place you're getting ready to sleep at. A broom closet? Bathroom? Norman? And after guessing, it's even more fun to guess which direction to actually turn to find your room number since all of the helpful directional signs most hotels provide are clearly an afterthought here, that unfortunately haven't yet even made it to "afterthought" stage yet. Oh, and the soft gooey amorphic tar spots causing us to stumble across the uneven outside walkway as we made our way to our room were a nice touch; perfect for making us feel we hadn't actually just checked into a safe hotel, but instead somehow accidentally found our way on to one of those rickety haunted houses at country fairs. Also great for those who prefer not feeling safe on the outside of the second floor drop in a tremor-prone California city. Well, that aside, within 10 minutes of arriving, at least we finally did get used to the odor we smelled when we first opened the door. It must have been coming from the gigantic enigmatic black carpet stain in the middle of our bizarrely shaped room. Blood!? Ok, well, we were seriously exhausted, so we decided to overlook the all the overwhelming creepiness, call it an adventure and bed down in Freddy Krueger's living room. But within a few minutes of settling in (and just before the welcoming weird smell vanished) instead of working as advertised, we found that their "provided" wifi signal preferred to play a lovely game of hide and seek with all of our laptops and smart phones. After about 5 minutes of trying, we called the front desk and, having received no empathy, asked if they could at least try resetting ONE of the routers responsible for providing our room with internet access (there were several and none of them were consistently remaining connected) to see if reconnecting to their internet service provider might ultimately help so that we could get some work done. The evening shift manager's blasé "ok" and anything resembling helpfulness should have been the final straw. But we tried for 30 more minutes, moving around the room, moving down the gooey outside walkway to the end and back and finally down through the white mystery doors to the lobby where we were told there were no rooms left to be moved to (even when just moments later I over-hear the request from a 'walk up' for a room and, after having been told the $150 price, leaves. Thanks for lying to us by the way). The problems we endured didn't stop there; frankly, I don't have the desire to include them all in this review. Suffice it to say, that after having attempted to be there for an hour and finally deciding this place wasn't for us, we were told that their policy was that after having remained in a room for 15 minutes, there were no refunds. Congratulations Quality Inn for creating the stupidest, customer-repulsing policy I've ever had the displeasure of coming across from any hotel in any of the 100+ countries I've traveled to, including North Korea. 15 minutes is fine if you decide you don't like the wall paper or that the room smells odd, but by the time you get settled and start to realize things like plumbing, non-working lighting and no internet is building up to cramp your expectations of what the quality in Quality Inn actually means, 30-40 minutes have elapsed. Which unfortunately is how long it took us to finally decide we'd had enough and desired a different room. As I had previously indicated, when I learned we were apparently lied to when we were told there wasn't anything available for us to move to, we actually decided to just depart the hotel and try some place else, a little over an hour of having checked in. At that point, we were told to go screw ourselves. They didn't care about our discomfort and dissatisfaction with any number of things. Our money was there's now and that their "policy" states that we shouldn't expect any recourse or remuneration, despite the fact that all they gave us was an hour of the worst hospitality experience we'd ever had the misfortune of experiencing. We were actually threatened by the shift manager with physical harm when I tried to video our unbelievable discourse (who had told us HE was actually the owner of the hotel, but who we later discovered -- from the incoming shift manager -- was simply just a shift manager himself. Continuing to lie to us was painting a pretty terrible picture of this guy's training). And because we were dealing with a "hotel", this guy had free access has our credit card number we were made to put on file. Which as you know as an unsatisfied customer, feels amazingly "secure". So before departing, I thought it was wise to have that guy check off with us that nothing was missing from our room, or had been broken by us, as that unfortunate accusation was a distinct possibility given the ongoing representation of this guys character. That was when he began to get really ugly, and accusatory. At that point we began to fear for our safety and I decided that getting the police involved was the best course of action. Not to bully them into changing their inane policy, but because we needed an official record about what transpired. So sadly we called, but since we didn't feel safe waiting any longer in the gang-pounded parking lot for more than the two hours it took the police to NOT show up, we threw in the towel and let him rob us. I honestly don't think anyone could have made up a worse experience, even as a practical joke, as the one we experienced at this property. We drove away dumbfounded at how a place like this could not only be in business, but get to display the sign of a national hotel chain. This was simply the most horrid hotel I've attempted to stay in, and the scariest interaction with anyone in the hospitality business, I've ever had in my entire 30 years of traveling the world. And if I could provide you with five vomit icons as a rating instead of one star, I would.More</t>
   </si>
   <si>
+    <t>Ricardo H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r284508095-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -636,6 +693,9 @@
     <t>Check-in went quickly. Room atmosphere was very good, quiet and relaxing.The stay in this hotel was outstanding, service was great, staff very friendly. Overall great experience and will definitely be returning again for future stay, and will also be recommending the hotel to friends and family.More</t>
   </si>
   <si>
+    <t>Amy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r266946072-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -663,6 +723,9 @@
     <t>It's hard to be understanding of elderly people's problems while traveling.   When my husband arrived tired and sick at this Inn, and I had locked our only car key inside the rental auto, we were most embarrassed.  Yet the concierge/manager and her desk associate were remarkably calm and gracious to take care of our needs efficiently without reproach. We were most grateful for their kindness and the ample suite layout for my spouse's privacy retiring early and  for my own space staying up later to relax from fierce L.A. traffic.  Between daytime rush hour traffic peaks,  the noise level dropped for our sound sleep at night. This inn's prime asset is its surprisingly great location for quick access to both downtown streets and freeways. When the concierge had to call AAA auto service for me, help arrived promptly!  Many thanks, R. and S.!More</t>
   </si>
   <si>
+    <t>tikntimebomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r265840763-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -681,6 +744,9 @@
     <t>The towels were dirty and the carpets needed some good cleaning. The location wasn't too bad and the hotel grounds was acceptable. Staff was very nice and personable. There was a stain on our shower curtain. I was ok with what I had since I wasn't in the room much. If you're going to spend quality time I your hotel room, this ain't the place. The pool was nice as well. Continental breakfast had a feeling of "let's just throw some crap together." Waffle maker was broken. Elevator is only big enough for two people with suitcases and it takes forever.More</t>
   </si>
   <si>
+    <t>Bob D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r252409609-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -705,6 +771,9 @@
     <t>I have stayed at this hotel for business many, many times over the years. This place is way better than you would expect from a Quality Inn. The beds are very comfortable and the suites are more like little apartments. This becomes my home away from home when I trave to LA. More</t>
   </si>
   <si>
+    <t>160michaelz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r252170943-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>Seriously don't come to this hotel. Don't make the mistake I made by booking this hotel. This ruined our whole Los Angeles experience. First of all, this place is in an extremely shady part of Los Angeles. But, the worst part is the service. I have never felt so disrespected and insulted as this hotel experience. We were watched on camera and followed by the front desk person who checked the cameras to see if we had extra guests. Then he verbally assaulted us through the hotel phone as well as when we walked outside of our room to downstairs in the lobby. The man downstairs charged my credit card without my consent and for an amount that should not be allowed (by Quality Inn Headquarter rules). This place is run by a bunch of crooks that want to get their money from unsuspecting visitors. Don't stay here! It will seriously ruin your Los Angeles experience.More</t>
   </si>
   <si>
+    <t>Prashant M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r247499728-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -759,6 +831,9 @@
     <t>This is a below "quality" quality inn. I traveled here with family over year end 2014 - location is good (near to hollywood), the front desk is also cooperative (that's why 2 stars) - but rooms are congested, bed &amp; beddings are bad, sleep quality is bad. Showers were not even having a hot water (in Dec cold). Breakfast was typical and boring. I will never recommend this to anybody.More</t>
   </si>
   <si>
+    <t>Cassandra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r233366095-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -786,6 +861,9 @@
     <t>This hotel isa DUMP. They need to rebuild. I stayed this year July checked out one day early because I woke up 4am to use restroom ants are coming up from the tub. Told the manager and said he will give the refund for the last night back( RDTT). He lied* no towels in room* rust in shower* when taking shower water is all over the floor.* white stuff in the corner of the room (maybe to kill the ants or make the room have a different smell* Rooms smell ( I went out and bought air fresher)I would not give this room to a dog to stay in.Save your moneyMore</t>
   </si>
   <si>
+    <t>Nanilove331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r230621192-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -805,6 +883,9 @@
   </si>
   <si>
     <t>My husband and my family got to the hotel around 2p.m. check in is at 3 and the desk clerk would not let us check in 20 min early . we just wanted to shower and rest since we driven from northern Cali. When we finally got our keys there were no clean towels available . housekeeping finally came with one towel saying that's all they had !! ONE TOWEL ! I had my two kids and husband !! What was I gonna do with one towel. Room smelled bad, air did not work. Just bad then after checking out my husband asked for a plastic bag to put trash in. LIES ! Staff is scummy lazy liars !More</t>
+  </si>
+  <si>
+    <t>fiftysomethingplus</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r229292430-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -826,6 +907,9 @@
     <t>Overall not that great.  Just took care of a bug crawling next to the pillow.  Old hotel, sink clogged, old old old towels,  broken &amp; noisy fridge which won't close due to ice buildup so ended up pulling out the plug hoping to get some sleep. Not a More</t>
   </si>
   <si>
+    <t>Swai8500</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r217700876-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -848,6 +932,9 @@
   </si>
   <si>
     <t>Photos online are misleading. This hotel is not a 2 or 3 star by far. Sheets were stained and carpet inside the room was also dirt and stained. Toilet was clogged and the front desk person was also the plumber and when we called to advise of a clog toilet had the audacity to ask if I wanted to unclog the toilet. Breakfast is a joke!! The only good thing is the free parking. Wouldn't stay here for Free, would rather pay for parking in a REAL hotel!!More</t>
+  </si>
+  <si>
+    <t>Mariap1969</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r216408661-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -874,6 +961,9 @@
 - the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to...I stayed here from July 12-18. Booked this place through priceline ( never again will i book through priceline, i couldnt choose my bed so when i got to the hotel it was an extra 40 bucks per nite to switch from king to 2 double beds  ) next time i'll book through hotel directly. David helped me out the best he can and gave me some savings.. Staff was friendly and courteous. David , Raj , the other lovely lady , forgot her name, always readily available to assist with towels, plastic forks, etc , whatever we needed , the cleaning ladies as well. Everyone was very pleasant and helpful. as well , the breakfast diner lady was also very nice. You can see that frontline staff is committed to giving the best service possible so that the customers come back. Good job guys keep it up :) Now, as far as the premises go: - breakfast scrambled eggs arent 100% wholesome eggs. A guest told me they are substitute stuff not sure what but the yellow is really yellow and dont really taste of eggs. ( you do have hard boiled eggs ) There is no peanut butter for your toast. The juices are very high in sugar and  so is the yogurt. - the washroom in the diner area is always locked, whats up with that?? Why do guests need to keep bothering the diner attendant to get it opened?? You have cameras you can see if strangers are getting in! - The exterior of the rooms  is old and cracked floors and walkways , furniture by the elevator is all scratched and old, please throw it out, elevator floor is dirty , loose tiles, and has graffiti in it, it didnt work one morning. - The interior of my room was so so. The carpet was stained . The beds were comfy and clean, no bugs, although room wasnt cleaned daily, one morning we still had the garbage from the day before and no toilet paper.- the location is right off the hwy, easy access. If i go back its cause of the friendly staff. More</t>
   </si>
   <si>
+    <t>Brutal B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r214188765-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -892,6 +982,9 @@
     <t>After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which...After all the previous reviews I was leery about staying here.  This was all for nought. The pool was very clean and all new patio furniture. In fact, a delivery of all new outdoor tables and chairs for alongside the back of the property just arrived during our stay. NO BUGS AT ALL!!!!!  Room very clean and lots of pillows was a big plus.  We stayed on 4th floor in back.  Very quiet and very good black out shades on the windows kept the room very dark as we sleep in.  The maids, breakfast attendants and front counter staff were very kind, courteous and helpful.  I asked for some mouthwash at 1am and received two bottles of mini Scope brand.  Coffee maker, ironing board, microwave, refrigerator and freezer all in good working order in our room. There were no 10min waits for the lift either.  You can take the stair or lift.  Breakfast was wonderful; Hard boiled and scrabbled eggs, bacon, orange and apple juice, coffee, tea, yogurt, pastries, toast, and the waffles were the best!  Don't believe the bad reviews of this place.  Some people are just too picky or just plain ignorant.  I stress NO BUGS at all save one ordinary house fly.  Wonderful eclectic hotel in a very cool neighbourhood near Hollywood, Korea town and Filipino town.  This neighbourhood is NOT scary at all.  The main front desk manager even helped me log into the WI-FI which works excellent,  I was able to watch my Eastenders on Youtube with no problem.  I will stay here again and will strongly recommend it to all my friends!More</t>
   </si>
   <si>
+    <t>alanv550</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r191671048-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -919,6 +1012,9 @@
     <t>Came here twice with my girlfriend just to relax and wind from everything else....very good service and good rooms for a good price. Wifi is a little iffy but besides that no complaints with anything else.More</t>
   </si>
   <si>
+    <t>nobreak1269</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r190339130-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -937,6 +1033,9 @@
     <t>The outside of the hotel had me weary-and the location (bad neighborhood).But once I got to my room I was RELIEVED!Very clean and spacious with no signs of bugs!I stayed in the winter so maybe they were gone anyway!The staff was friendly and the breakfast was excellent!My vehicle was secure in thier video monitored parking lot.I left very very satisfied and happy!More</t>
   </si>
   <si>
+    <t>andrejbr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r185358820-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -964,6 +1063,9 @@
     <t>The hotel is a disgrace to the Quality Inn brand, at least for the brand in Brazil who usually have reasonable hotels.The hotel as a whole is nasty, dirty and unkempt. The hall/corridors are so ugly and dirty that comes to fear, the rooms are a blend of: dirt, noise and old things.Worst of all, they charged my card the wrong (more than they should charge, of course) and I'm here fighting to give back my money.Simply horrible. Quality Inn NEVER MORE!More</t>
   </si>
   <si>
+    <t>GerbilQueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r174328734-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -991,6 +1093,9 @@
     <t>Location was run down, surrounded by roads and freeways, nothing nice to look at, dirty swimming pool with federal closure notice on it overflowing trash bins, but worst of all was the plastic crockery and cutlery with the breakfast.Staff were polite but not very welcoming and despite traffic all around the room was quiet, reasonably clean and comfortable.More</t>
   </si>
   <si>
+    <t>BransonGazebo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r174200563-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1015,6 +1120,9 @@
     <t>A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with...A little apprehensive based on the reviews, but spot on I'm with Paul's review, the location is great, easy to get around (learn the side streets), good food and entertainment nearby, rooms aren't the Hilton, but they are clean and comfortable.  Just like with some older properties, they do require some hefty repairs from time to time and you can see that they are making good strides to do so.  We were here for a convention and didn't want to pay the high dollar for a room at the host hotel.  For price and convenience, I don't think you could have picked much better than this.  Again, a clean and comfortable room, decent breakfast with good basic items, eggs &amp; bacon included (expecting more? go to Denny's you cheapskates), the area is very urban, however, we all felt perfectly safe.  The only real issue we ever had was after checking in, it was a little late in the evening and after flying all day, we were a little taken back by our rooms; size was a little small and had a little funky smell, likely just being closed up in the heat, however, turning on the a/c (which worked all too well), it quickly became much more comfortable and the funk went away.  After getting a good nights rest, the next morning we realized just what a little organization can do for you and we were actually quite pleased with everything.  I'm traveling with 2 other rooms and will admit, we have become somewhat of a hotel snob, but all in all, if we were to come back to LA, I certainly wouldn't mind staying here again.  The folks are nice, they even printed all of our boarding passes for us, the housekeepers were attentive (and funny too) and the hostess in the morning is very sweet and always keeping things clean and tidy, well stocked and helping people when they needed it.  Heck, when she didn't have anything to do, she would go to the lobby and clean the front door and dust the furniture.  I can go on and on, but as a hotel manager, I think a good number of these reviews are relatively out of line, and to a degree, are a little prejudicial sounding which is very offensive to me.  Things do happen when you're traveling, unfortunately, the outcome might not be what we want it to be which can spawn tirades like some of the reviews I've been reading.More</t>
   </si>
   <si>
+    <t>PaulFasano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r173250161-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1037,6 +1145,9 @@
   </si>
   <si>
     <t>Not sure why so many of these other people had issues at this hotel? Ok it’s not the W or Ritz Carlton but it’s not meant to be. It’s a reasonable priced hotel for L.A. Market. The room I stood in #206 was clean and spacious. The hotel did not nickel and dime this customer like so many other hotels do by charging for parking and internet both free. It was convenient on and off from Hwy 101. There is an old saying get what you pay for, if you want the W or Ritz then pay $400 a night. If you want clean and simple then pay the $125 rate I did. I know I will be back in the future..thanks much!More</t>
+  </si>
+  <si>
+    <t>TD N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r168515880-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -1068,6 +1179,9 @@
 I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to...I had a reservation booked for 3 nights in August at this location.  When I was doing some reading on the internet about the hotel, I seen that there is a shuttle service from LAX to the hotel with a third party provider and that there is rental cars nearby.  I called the hotel to ask what the names of these companies were so that I would be able to book transportation while in LA.  My first call to the front desk turns into "I am busy, call back in 20 Minutes".  So I waited the 20 minutes and called back again.  I said "I have 2 questions about your hotel, can you help me with it."  I was told again, I am busy call back in 30 minutes".  I waited about an hour and called back in and got the same front desk agent answered again.  I was told he did not need to answer any questions for me and for me to call the general manager some time and he hung up on me.I proceeded to call Choice Hotels customer relations in regards to this issue and I was given a reference number and told that the General Manager would be in contact with me the next day.  I am now a week later and have yet to hear from the GM.  I called back to the Choice Hotels customer relations group and I did speak to a Supervisor at the call centre, they called the hotel and got the information.  Needless to say.  I have cancelled my reservation and will not be staying at this location due to very poor customer service.  I guess I should have read some of these reviews before booking in the first place.More</t>
   </si>
   <si>
+    <t>Gerald L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r167585768-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1083,6 +1197,9 @@
     <t xml:space="preserve">The room was inundated with ants, bathroom floor was covered in water due to a valve leak on the toilet. Was told by front desk that are room would be changed and on our return they stated that our rooms problems were corrected and no other rooms were available. Nothing was done to correct the problems and we had no choice but to sleep with ants and walk on a wet bathroom floor. This hotel should be closed it is not suitable for human habitat. </t>
   </si>
   <si>
+    <t>sonshinegirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r167584334-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1101,6 +1218,9 @@
     <t>No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely!...No, this is not where I would like to stay on a "holiday" However, for convenience to the Los Angeles Convention center it works just fine. This was our second stay and it meets our needs. Last year while in the parking lot, we witnessed a delivery truck backing into a parked car and driving away.  When we went in to report it, it turned out it was the desk manager's new car! For reporting it, she upgraded our room to the one bedroom "suite" (nothing fancy) but very nice of her to do that. This year for our business convention, we booked three rooms for our team. The hot breakfast was a little wimpy, but the staff was really trying to their best to serve. While my husband and my room was paid for in advance, we noticed that there were two unauthorized charges totally over $200 on my debit card from the hotel. We were on a tight budget and being the weekend, we would have been in trouble with the holds on our card. I contacted the desk manager (same gal that got her car hit the year before) and she went to extra ordinary lengths to call the bank and have them removed. Why the desk guy ran my card, was not explained. If it was just human error, I understand. Just makes me wonder how many charges people miss if they are not watching closely! I don't know her name, but the desk manager there is wonderful. If we have to go to a Los Angeles convention for our company again, I would stay there.More</t>
   </si>
   <si>
+    <t>Winay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r156509177-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1128,6 +1248,9 @@
     <t>too many problems 1) rough neighborhood.2) worst customer service from front desk personal.3) bug in rooms.4. mold in bathroom.5 room too small. 6.rooms was dirty including shower head.7) elevator is scary.8) odd shape building take elevator floor 3 to get to fourth floor.9.try to cancel my reservation but was not successful.More</t>
   </si>
   <si>
+    <t>Stephen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r155524265-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1152,6 +1275,9 @@
     <t>Ive been to a few quality inns and most times im pretry disappointed. I stayed here expecting a dirty room but that wasnt the case at all. The room was absolutely spotless....no foul smell, no stains in the carpet. I will always frequent this hotel when in los angelesMore</t>
   </si>
   <si>
+    <t>LAFaulkner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r155355164-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1173,6 +1299,9 @@
     <t>We were staying at this hotel only as we had to be at the Canadian Consulate early Friday Mar 15 due to theft in Los Vegas. We were also planning to relax by the pool.  Pool not heated and there was upholstered sofa on deck.  The room was ok, and the gentleman at check in was very pleasant (think he was the owner).  We had requested a wake up call at 6:am and woke up at 7:30,  as there was no call.  The result was never got breakfast ,  and had to take a cab to &amp; from the consulate..  Not happy campers.  When we returned spoke to woman at front desk who assured me that she would investigate, and get back to me with outcome.  I told her that I thought reimbursement for cab and breakfast would be reasonable.  She said she would call.   Never heard back. Being the first time using choice hotels reservations would not use them againLeslie Faulknerleslies6@telus.netMore</t>
   </si>
   <si>
+    <t>GoRoadie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r152576790-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1200,6 +1329,9 @@
     <t>We stayed at this hotel four nights while visiting family nearby. This hotel is extremely clean and the friendly staff is very attentive to your needs. Our fifth-floor room (yes, they have an elevator) was spacious, with a view of the Hollywood sign, and included a microwave, frig, coffee maker and hair dryer. The breakfast was above average with great coffee, waffle maker, the usual bread items, cereal, etc. However there was no yogurt and the scrambled eggs were so-so. They did have fresh oranges and apples, and the orange juice was very good. Our last two mornings they also offered bacon, and we wondered why they didn't have it the other two mornings. The room rate was very reasonable and parking was ample; in fact, if you were lucky, you could use one of their covered parking slots. We would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Jurka R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145963340-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1227,6 +1359,9 @@
     <t>Friendly service, we had a view to the famous Hollywood sign, which was a nice bonus. The room was the the top floor, and nothing disturbed our sleep. The was supposed to be a non-smoking one (there was even a sign), but our experience told something else (the kids protested quite loudly). The breakfast was pretty ok. We could consider going again.More</t>
   </si>
   <si>
+    <t>bdicke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145960950-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1245,6 +1380,9 @@
     <t>We needed a hotel in the Silver Lake area while visiting in Los Angeles and chose the Quality Inn at 250 Silver Lake Blvd. We had read very mixed reviews of this hotel but location was important to us. This is a very outdated hotel perched above busy Silver Lake Blvd. Walking in we were pleasantly greeted by the staff. The rooms in this hotel have entry from the outside so security wise we would suggest staying at least on the second floor and above. Neighborhood isn't the best so take precautions. The rooms are in dire condition with furniture uncomfortable at best. Bathrooms with dirty grout and generally in need of a redo. We could overlook the dated interior as we were only staying for a short stay, but could not accept the absolutely dirty wash cloths the maid brought us when cleaning the room! Poor quality, dirty linens just tipped this place over the edge. The only plus for this establishment is the price, $89.95 a night in LA is a bargain but you do get what you pay for. No recommendation for the Not Quality inn that is not near the convention center.More</t>
   </si>
   <si>
+    <t>eem2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145455201-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1269,6 +1407,9 @@
     <t>rudest staff ever ! They  take  your  money and  thats  all they care about !  not  very friendly.  DIRTY rooms and public.areas  needsTLC !!!  small rooms, outdated. pictures are  misleading. I  would not recommend.More</t>
   </si>
   <si>
+    <t>foodie_50_90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r145426135-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1287,6 +1428,9 @@
     <t>I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that -...I am not a picky traveller and this is the first time I write a review - ever. I've stayed in hostels in developping countries and this was by far my worst hotel experience. On walking in, it smelled heavily like a smoking room even though it was supposed to be non-smoking, the towels were all very frayed, yellow and worn out, the TV wouldn't turn on, the desk service was friendly to less friendly depending on who was manning it, and all of the above would matter very little if it wasn't for the bed bug situation. I was about to go to bed when I saw one crawling on the pillow. I'm not very squeamish so I didn't think much about it at first but then worried that it was a bed bug so I took a picture of it on my cell phone (that came out blurry) and google imaged bed bugs and it looked just like one. I don't like to be fussy but this is kind of a big deal so I called management, who didn't believe me, said they sprayed every 2 weeks, and only had a smoking double bed room free since that night was supposedly "full". The only thing they did was bring fresh sheets and left. Since I had to be up very early and didn't have time to search for a new hotel around LA, I settled with that - but wished I hadn't. Now, a few days later, I have about 20 itching bites pretty classic for bed bugs and while I can't be certain it wasn't from the plane (this is so rare) or my own apartment which I'm back in (again, rare since I've lived here forever, haven't had any recent visitors), it is most likely from the hotel. Overall I found them to be very unsympathetic and immediately jumping to deny it, which made me suspicious. If you are debating between here and another place, go elsewhere. This place has bed bugs and they don't care. I've called the hotel 3 times since Sunday and the manager is mysteriously never there even though the previous day, they told me he left early and that he'd be back the next day. I am awaiting his call back and will update if they made amends appropriately and offered to compensate me.More</t>
   </si>
   <si>
+    <t>Megan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r143960340-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1308,6 +1452,9 @@
     <t>Overall, our stay wasn't horrible, however it wasn't amazing either. The furnishings are nice, considering the location. Pros: Close to where we needed to be, nice enough room, breakfast, cleanlinessCons: Customer Service, towels were old and dingy, coffee machine quit working, slow small elevator, when asked for additional towels/coffee they were very stingy only giving one at a time. Breakfast closed at 9.30am sharp, they have waffle makers that were nice, but everything else was just ok. They shut the doors and start putting everything away right at 9.30, even with people still eating. Unfriendly people at the front desk. I might stay here again, but don't expect an overwhelming good experience. If I didn't need to be close by, I would look for another hotel.More</t>
   </si>
   <si>
+    <t>Vince H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r137710347-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1326,6 +1473,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Sarah H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r136775965-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1347,6 +1497,9 @@
     <t>Pleasently surprised, staff very friendly check in was quick and easy and we were very happy with our room. We asked for a non smoking room and was given that and it was also actually a handicapped room. The room was massive with a king size bed which was very comfy. The bathroom was also huge however the wash basin was not in the bathroom but actually in the corner of the bedroom where the little fridge/tea coffee area was, some may have a problem with this but we were fine with that. Hotel is actually in a good location as it was central to everywhere, however we did have a car, not sure about people that don't have there own transport. Not sure about the area its self. Not much many shoos etc within walking distance but only a short drive away. Our room was facing a busy street which we could hear traffic noise from in the room, however all we had to do was put the fan/air conditioner on and we couldn't hear a thing. Room was cheap for the 2nights we stayed and included breakfast which I thought was very good-(cereal, toast, mini muffins, pasties, cook your own waffles, bacon and eggs and yoghurt). Overall I would definately stay there again More</t>
   </si>
   <si>
+    <t>bradfordladon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r134869897-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1362,6 +1515,9 @@
     <t>Its a motel. made a reservation for non smoking and was given a smoking room. i asked for a change and was denied because they were fully booked. parking is tight and its located in the ghetto.</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r131976326-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1389,6 +1545,9 @@
     <t>The rating really is only "average" -- but when one considers the location, it warrants ratings bump. The owners are clearly working hard to make a go of this. This hotel is right at the confluence of Silver Lake and Virgil. Within walking distance of plenty of restaurants. The room was clean. The bed passable. The common area back patio is fantastic, and the complimentary breakfast was fine, eggs, breakfast meets, make-your-own waffles, a variety of cereals and fruits.Free parking!More</t>
   </si>
   <si>
+    <t>stonfix</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r131143356-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1413,6 +1572,9 @@
     <t>Finding reasonable priced accomodation in LA can be very frustating. especially if you don't want to stay in Hollywood. Building is a little old and needs some renovation, but rooms are big, comfy and very clean. Breakfast is good for american standards, with eggs, bacon and fruits. The area around hotel is not the best, but it's not horrible either. It's a little tricky to get in hotel entrance for the first time, but you cant beat the price in LA for a decent hotel. Would stay there again.More</t>
   </si>
   <si>
+    <t>EvaJac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r130781123-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1440,6 +1602,9 @@
     <t>If you just want a clean place to stay, this is fine.Really big rooms, but no charm.Breakfast was really nothing for us, but others seemed to like it.Helpfull staff and location near charming Silver LakeMore</t>
   </si>
   <si>
+    <t>Christopher C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r123515772-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1458,6 +1623,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>CalItal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r118117113-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1479,6 +1647,9 @@
     <t>We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels,...We are a family of five, the rooms are big, we have a moving company and had a car and a truck, there was parking for both vehicles with no extra charges. They do accept pets-which is rare for an Los Angeles hotel- but the fee is $50.00- a bit costly for the average pet fees we have seen in the mid-priced hotel range. The pool was cold, and is on the shady side of the hotel, it also seemed to have a lot of leaves etc in it, though there are a lot of trees and plants around it. The water was clear though, so it is cared for. The room we had, had the two queen beds and a rollaway. It was clean, and modern a great space for a family with several kids. The location was great, a decent neighborhood for Los angeles, and right on the edge of the city. We could see the white Hollywood sign on the hill from the parking area. It is a short drive to the Hollywood walk of fame etc. There is a lot of dining all around the hotel, chain and local restaurants. The hotel features a simple but nice breakfast in the morning. Hardboiled eggs, yogurts, fruits, a variety of rolls and toast, coffee, tea, juices, also my kids favorite- the make your own waffle bar. The hotel features a good sized eating area, but like most hotels, do not wait until a half hour before the breakfast closes to eat- it gets very busy and crowded then. The staff here are very friendly. The hotel does have an odd elevator system, it is in the lobby, and comes up through one side of the hotel. If your room is on the other side of the hotel you may have a small walk to your room-bring wheeled luggage. They do have a stairway on this side of the hotel, but once you go out the door it locks behind you and you cannot get in even with your room key-security?. So you must walk to the other side of the hotel and re-enter through the lobby to ride the elevator or walk the stairway there. This can be difficult if you are parked at the far end of the parking area. They do have a lot of handicapped parking zones near the lobby for people with difficulty walking so much. I noticed someone mentioned this hotel to be a find in Los Angeles, I would agree! The rooms we have had prior to this are small and costly, and all seem to have parking issues etc- Nice place-thank you!More</t>
   </si>
   <si>
+    <t>Carolyn679</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r115388763-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1497,6 +1668,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>CanadaCanuk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r76246550-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1518,6 +1692,9 @@
     <t>We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is...We stayed in a family suite using the website special of stay two nights get the third night free.  I accidentally booked our room for the day before we actually wanted it.  When I showed up on the day that I thought I had booked it for, frontdesk was very understanding.  They did not charge me for the first night, and they arranged for our room for the third day that I wanted. My mistake really could have messed up our holiday, so I am so thankful that they were understanding and pleasant. We also wanted to spend the day at Universal (take public transit - close and saves parking/walking) so we showed up before check in time.  They quickly found a room for us.  Our room was big and very, very clean.  I am a super freak about dirt and germs, but I was very pleased and comfortable there.  The bedding was crisp white, which meant that I knew it had to be clean or I would have noticed stains/ dirt.   It was very quiet and free parking was great.  The breakfast was the best of any of the 5 hotels that we stayed at in the similar price range.  I felt very relaxed here, and we didn't have any stress or problems.  Everything was as I hoped and expected or better.  FYI There is a laundry mat just half a block north of the hotel.  The subway is about three/four blocks away.  We didn't find too many places to eat within walking distance, but when driving, we weren't far from restaurants.  We bought snacks to eat in our room in the evening.  We had a microwave, so popcorn was good.  They also sell popcorn and candy in a vending maching in the hotel.More</t>
   </si>
   <si>
+    <t>sablatt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r52793251-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1536,6 +1713,9 @@
     <t>My 20 year old daughter and I spent 4 nights at the Silver Lake, and we had a wonderful experience. The room was cool, with a lovely view of Griffith Park &amp; its striking observatory as well as the Hollywood sign. The room was clean, and the beds were firm and comfortable with wonderfully plump pillows. The breakfasts were of the type usual for this kind of hotel, but they do a better job than most. Even if you come at the last minute, they are never out of anything, from muffins to eggs &amp; bacon to cereals. The hotel has cleaning staff who always seem very busy, and the front desk staff are friendly and helpful. They even suggest the things that wouldn't occur to us to ask about. As for the location, LA is a very big city, but I was pleased and surprised to discover I could get to almost anywhere with very little trouble because of its nearness to major highways. The only negative is that the hotel isn't in a neighborhood that invites walking exploration. It didn't feel dangerous, just not very interesting. It was nice getting covered parking.More</t>
   </si>
   <si>
+    <t>ColoKids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r36944593-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1555,6 +1735,9 @@
   </si>
   <si>
     <t>I was on the phone with Jeff several times about the poor reviews.  I was promised a pleasant stay because the hotel had been purchased by a new owner.  The pict on the web site are as promised, clean and very comfortable beds.  Jeff and Paten (?) were VERY helpful in assisting us with the better restaurants, tips on where to ride the underground train to get to Hollywood Walk of Stars and grocery stores.  They were always available at the desk if needed.  Breakfast was pretty good and since it fed a family of 4 much worth the price.  The hotel includes parking and breakfast - not many do around there.  I was VERY happy with our stay here.  Parking not an issue and we rarely saw guests in the hotel, very quiet.  Thank you for making our stay wonderful!  I appreciate you keeping the promise.More</t>
+  </si>
+  <si>
+    <t>michaelbolles</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r17998242-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -1592,6 +1775,9 @@
 With this experience...Here my letter to the Manager, I hope this help others not to live the same experience:Dear Jim,Today I´m living one of the worst traveling experiences, and all thanks to Holiday Inn Hotel.Yesterday night after confirm at the front desk that "there is always some one in charge for attend any customer 24/7" my nightmare begins.After a very short night I went at the front desk around 4am for my check out process and for a taxi, And what I found was a message that says"One moment please, I will return in a few minutes..." and at the end "Smile you are in Camera" I was waiting for around 1 hour with no signal of any person, until that I understand that nobody was going to help me so I start to search for taxi options via Internet and making several international calls trying to find a ride to the airport. When I was able to arrive to the Airport, the Airline told me that I lost my flight and because of this my connection, so that means that I will not arrive home the day I planned and all my next day meetings must be canceled.As a result the next available flight was 12 hours later with 3 scales and several hours between flights, meaning that my next night will be at another airport, I will arrive with 20 hours delay.With this experience the impact was more than just a lost flight, and because of that I will proceed to send an Letter to RRHH explaining this situation and why this hotel can not be an option when we need to be in a business travel.I expect that some one take actions to never let this happen again to any customer.regards.MBMore</t>
   </si>
   <si>
+    <t>Frank N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r16629610-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1625,6 +1811,9 @@
 Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for...Booked this hotel because I am a member of the Priority Rewards Club and it was close to Loyola Law School where I was to attend a seminar the next morning.When I pulled into the parking lot the check in location was not early to see. Parking lot was adequately lit, but hotel is at the base of a terrace so houses above gave me the feeling of being watched.Got in close to midnight and there was someone at the front desk to greet me. Had my reservation down for two nights when I only book one. Got that corrected at the front desk. So for, so good, as they have a 24 hour cancellation policy.Got up to my room on the 3/4 floor via a small elevator. It reminded me of being in Ensenada, Mexico. The third and fourth floors are on a split level with the third for handicapped access.Room did not have a room number on the door so I had to lightly knock on the door hoping no one would answer.Once I got into the room, it was clean with big windows. TV didn't work well as all of the channels were fuzzy.Slept well until around 3 or 4 a.m. when plenty of loud people decided to hold a conversation outside in one of the open walkways. There was king size with plenty of pillows, both firm and soft, for a good night's sleep. Lots of road noise at all hours of the day and night. This is probably the biggest draw back of this hotel, especially when one's room faces the adjacent freeway.Got up late in the morning so I was in a hurry to leave. Had to wait for someone to check me out, just to confirm I wouldn't be charged for second night. Desk personnel were not very helpful in locating the law school. I can understand lack of knowledge of the area, but there was no effort to point me in the right direction to find out. Complementary continental breakfast was nice. The eating and serving areas were clean.I paid $160 per might through on line booking. I would look for a better hotel with less noise from the freeway for the same price.More</t>
   </si>
   <si>
+    <t>travelniu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r13999462-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1643,6 +1832,9 @@
     <t>February 2008</t>
   </si>
   <si>
+    <t>77princess</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r8271016-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1656,6 +1848,9 @@
   </si>
   <si>
     <t>The previous (and only) review is way too outdated! They have since remodelled...all the rooms have new carpet, new furniture, decor..and the housekeeping staff keeps the rooms so clean! Much better improvement!!!A little pricey at times of the year but hey, this is L.A.!!! Kudos!</t>
+  </si>
+  <si>
+    <t>mathias1979</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r7941033-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -1681,6 +1876,9 @@
     <t>To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.
 Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  
 The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't...To be clear, this is the Holiday Inn Express at Silverlake, not Hotel 250 at silverlake, not sure why the confusion on the name.  Even the shuttle service from the airport also had a hard time figuring out what hotel I was seeking transportation to, even though the hotel referred me to their service.  They had to go by the street address.Girl at check-in was very friendly and helpful as were all the other staff I encountered.  Rooms were clean.  Parking was sufficient.  Hotel was quiet during my stay.  The room was very simple with no frills.  You get the basic amenities but nothing more.  I think the rooms could use a bit of remodeling to feel a bit more accomodating.  I was on the fifth floor, and the outside walkway faced right into the hillside and wasn't well lit at night...but at least it was quiet and not facing a noisy road.  My other view was a portion of roof then Rt101.  When the haze lifted enough, I was just able to make out the Hollywood sign on the distant hills.  The biggest con: Location location location.  At first I did not rent a car thinking I could just take the metro to the LA Convention Center since it was only two blocks away.  One look at the neighborhood and I opted for the rental car.  There were some homeless hanging out near the hotel and it wasn't the kind of neighborhood I would feel safe walking in well after dark.  The good news in all of this is that the hotel is set up upon a hill so there is a buffer zone between the neighborhood and the hotel property.  But if staying here, plan on renting a car or taking a taxi.  Overall, generally pretty average.  Other than the location I had no major complaints.  At the same time, the services offered were just the bare bones, and the only real compliment I could give is that their front desk service was friendly.  Bottom line: stay here if on a budget or having trouble finding room elsewhere.  But look somewhere a bit nicer first if you can afford it.More</t>
+  </si>
+  <si>
+    <t>USMA1986</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r7848782-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -1709,6 +1907,9 @@
 So, for a three-day business stay this place was more...I recently attended a conference in LA. I was not planning on going, so my late booking left me with no hotel options close to the Convention Center. The closest, decent thing I could book was the HI Express at Silver Lake. First of all, this is NOT a family resort hotel. A quick Google Earth of the area will quickly show the type of neighborhood it is in. That’s not to say that it is dangerous – just that it is 100% commercial/industrial with I-101 running right overhead. So these are the expectations you must set.The guy at check-in was friendly, efficient and quick. The rest of the front desk staff were also quite pleasant and capable. Every time I requested a taxi for the morning (even for a 4:00 a.m. pickup), it was there. The cab ride to the Convention Center (or Staples Center) was about 15 minutes and $15.The room was very clean and quiet, and the temperature controls worked well. The bed was comfortable and the bedding was more than acceptable. My junior suite had two TVs, a coffee pot and a rather nice desk. The free WiFi worked great. The bathrooms were a bit dated, but clean. The showerhead was new. I did not eat the continental breakfast (which looked very limited), but the coffee was pretty good with decent-sized “go” cups provided.So, for a three-day business stay this place was more than acceptable. But would I take my family here or stay here for a LA vacation? No. The Silver Lake simply is not in a tourist area.More</t>
   </si>
   <si>
+    <t>mindy74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4942898-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1727,6 +1928,9 @@
     <t>I stayed here with my family for the Los Angeles marathon.  We were a little concerned about the location but once we got there, it was fine.  The neighborhood didn't seem particularly bad and I was planning to walk to the subway in the morning (but ended up getting a ride from my husband anyway).  The management could not have been nicer, greating us enthusiastically and chatting about the marathon, the weather, and everything else under the sun.  The room was clean and good sized, and breakfast in the morning was fine...coffee, juice, cereal, pastries, etc.  Our only complaints (and they are minor) was that there wasn't a dvd player in the room, as mentioned on the website, and I saw a bug or 2 in the bathroom.  Not a big deal.  Oh, and the internet access worked fine from our room.More</t>
   </si>
   <si>
+    <t>NGHC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4344280-Hotel_Silver_Lake-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1743,6 +1947,9 @@
   </si>
   <si>
     <t>We booked two rooms with a hollywood view as it was faboulously advertised. It was more like a lauzy, small room, yucky carpet, with balcony--not a good value for $150.00 plus tax, a night. When we checked in, we got two rooms at the 5th floor, however, one of the room, was smelly. No body can survive within 1 minutes in that smelly room.  The staff relocated us to the third floor, no balcony, without giving consideration for the lower rate. What you can expect? The room was small and old as well. The wireless internet connection is not working and the staff can explain. The next day, the other staff suggest us to use lobby's wireless connection, still cannot work and no sympaty to help.This is one on the worst hotels I've ever stayed at. I'm disapointed with this Holiday Inn property--they can do better than this!I would not recommend this place to anyone on earth.More</t>
+  </si>
+  <si>
+    <t>Skylar_B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84513-r4314034-Hotel_Silver_Lake-Los_Angeles_California.html</t>
@@ -2265,43 +2472,47 @@
       <c r="A2" t="n">
         <v>36769</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2317,56 +2528,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36769</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2384,50 +2599,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36769</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2447,50 +2666,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36769</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2508,56 +2731,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36769</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2569,56 +2796,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36769</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2630,47 +2861,51 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36769</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -2687,47 +2922,51 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36769</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -2744,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36769</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2811,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36769</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2876,56 +3123,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36769</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2943,56 +3194,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="X12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36769</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3004,56 +3259,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36769</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3069,56 +3328,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36769</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -3136,56 +3399,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36769</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3197,56 +3464,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36769</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3262,56 +3533,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36769</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="O18" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3327,56 +3602,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36769</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3394,56 +3673,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36769</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3455,56 +3738,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="X20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36769</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3520,56 +3807,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36769</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3581,47 +3872,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36769</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -3648,56 +3943,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36769</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -3715,56 +4014,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="X24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="Y24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36769</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="O25" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3780,56 +4083,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="X25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36769</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3847,56 +4154,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36769</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3908,47 +4219,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36769</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
@@ -3975,47 +4290,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36769</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -4042,47 +4361,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="X29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Y29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36769</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -4099,56 +4422,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36769</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>308</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -4166,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="X31" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36769</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4227,56 +4558,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36769</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4288,56 +4623,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="X33" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36769</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4359,56 +4698,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="X34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36769</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4430,56 +4773,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36769</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>352</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P36" t="n">
         <v>4</v>
@@ -4501,56 +4848,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36769</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4572,56 +4923,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="X37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="Y37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36769</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4635,47 +4990,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36769</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
@@ -4704,50 +5063,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36769</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>386</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="J40" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4771,50 +5134,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36769</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="K41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4836,47 +5203,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="X41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="Y41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36769</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>403</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="J42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="L42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
@@ -4903,47 +5274,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="X42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="Y42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36769</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
@@ -4970,56 +5345,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="X43" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="Y43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36769</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5041,56 +5420,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="X44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="Y44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36769</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>430</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5112,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="X45" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36769</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="K46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="L46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O46" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5183,56 +5570,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="X46" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="Y46" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36769</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O47" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -5254,56 +5645,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="X47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="Y47" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36769</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="J48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="K48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="L48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="O48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5327,50 +5722,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36769</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>463</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="K49" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="O49" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5392,56 +5791,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="X49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="Y49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36769</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="O50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5465,50 +5868,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36769</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5522,50 +5929,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36769</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="O52" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5589,50 +6000,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36769</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5654,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="X53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="Y53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36769</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>502</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>504</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>505</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5725,56 +6144,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="X54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="Y54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36769</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="J55" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="K55" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="L55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5796,56 +6219,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="Y55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36769</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>521</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="J56" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="K56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="L56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -5869,50 +6296,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36769</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>528</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="K57" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="L57" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>478</v>
+        <v>534</v>
       </c>
       <c r="O57" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -5934,50 +6365,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36769</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>536</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="J58" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5997,50 +6432,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36769</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>543</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>487</v>
+        <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>489</v>
+        <v>547</v>
       </c>
       <c r="L59" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="O59" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6064,41 +6503,45 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>492</v>
+        <v>550</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36769</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>551</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="J60" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="L60" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
@@ -6127,50 +6570,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36769</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>558</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="J61" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="K61" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
       <c r="L61" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>504</v>
+        <v>564</v>
       </c>
       <c r="O61" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6194,50 +6641,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>505</v>
+        <v>565</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36769</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>566</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="K62" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="L62" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
       <c r="O62" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6261,50 +6712,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36769</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>574</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="J63" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="L63" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
       <c r="O63" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6326,50 +6781,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36769</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>582</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="L64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="M64" t="n">
         <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="O64" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6393,41 +6852,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36769</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>589</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="J65" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="K65" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="L65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -6446,50 +6909,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36769</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>595</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
       <c r="K66" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="L66" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="O66" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6511,50 +6978,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36769</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>603</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="J67" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="K67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="L67" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="O67" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6578,41 +7049,45 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36769</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>610</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="J68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="K68" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="L68" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
@@ -6639,41 +7114,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36769</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>617</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>550</v>
+        <v>618</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="J69" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="K69" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="L69" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
@@ -6700,41 +7179,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36769</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
@@ -6761,7 +7244,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
